--- a/JupyterNotebooks/AvgHW/GossF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,25 +629,25 @@
         <v>1.345159600979164</v>
       </c>
       <c r="D3">
+        <v>0.9146373514973861</v>
+      </c>
+      <c r="E3">
+        <v>1.569254074824068</v>
+      </c>
+      <c r="F3">
+        <v>0.9662066938889495</v>
+      </c>
+      <c r="G3">
+        <v>1.156904908299804</v>
+      </c>
+      <c r="H3">
         <v>1.430420888209043</v>
       </c>
-      <c r="E3">
-        <v>1.156904908299804</v>
-      </c>
-      <c r="F3">
+      <c r="I3">
+        <v>1.430420888209043</v>
+      </c>
+      <c r="J3">
         <v>1.345159600979164</v>
-      </c>
-      <c r="G3">
-        <v>1.569254074824068</v>
-      </c>
-      <c r="H3">
-        <v>0.9146373514973863</v>
-      </c>
-      <c r="I3">
-        <v>0.9662066938889495</v>
-      </c>
-      <c r="J3">
-        <v>1.430420888209043</v>
       </c>
       <c r="K3">
         <v>1.345159600979164</v>
@@ -679,25 +691,25 @@
         <v>1.334292287912513</v>
       </c>
       <c r="D4">
+        <v>0.8172320540202065</v>
+      </c>
+      <c r="E4">
+        <v>2.502563244388664</v>
+      </c>
+      <c r="F4">
+        <v>1.137814685895308</v>
+      </c>
+      <c r="G4">
+        <v>1.312414567097076</v>
+      </c>
+      <c r="H4">
         <v>1.737050942784302</v>
       </c>
-      <c r="E4">
-        <v>1.312414567097076</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
+        <v>1.737050942784302</v>
+      </c>
+      <c r="J4">
         <v>1.334292287912513</v>
-      </c>
-      <c r="G4">
-        <v>2.502563244388664</v>
-      </c>
-      <c r="H4">
-        <v>0.8172320540202065</v>
-      </c>
-      <c r="I4">
-        <v>1.137814685895308</v>
-      </c>
-      <c r="J4">
-        <v>1.737050942784302</v>
       </c>
       <c r="K4">
         <v>1.334292287912513</v>
@@ -741,25 +753,25 @@
         <v>2.980036563290933</v>
       </c>
       <c r="D5">
+        <v>0.8982227354972873</v>
+      </c>
+      <c r="E5">
+        <v>0.9767920905391435</v>
+      </c>
+      <c r="F5">
+        <v>0.9434244496414078</v>
+      </c>
+      <c r="G5">
+        <v>1.535580148296976</v>
+      </c>
+      <c r="H5">
         <v>3.825208956509219</v>
       </c>
-      <c r="E5">
-        <v>1.535580148296976</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
+        <v>3.825208956509219</v>
+      </c>
+      <c r="J5">
         <v>2.980036563290933</v>
-      </c>
-      <c r="G5">
-        <v>0.9767920905391435</v>
-      </c>
-      <c r="H5">
-        <v>0.8982227354972873</v>
-      </c>
-      <c r="I5">
-        <v>0.9434244496414078</v>
-      </c>
-      <c r="J5">
-        <v>3.825208956509219</v>
       </c>
       <c r="K5">
         <v>2.980036563290933</v>
@@ -803,25 +815,25 @@
         <v>6.245326203686531</v>
       </c>
       <c r="D6">
+        <v>0.1250686998274139</v>
+      </c>
+      <c r="E6">
+        <v>0.916230768269628</v>
+      </c>
+      <c r="F6">
+        <v>0.4283801285732389</v>
+      </c>
+      <c r="G6">
+        <v>0.2062785864384515</v>
+      </c>
+      <c r="H6">
         <v>10.54317485541254</v>
       </c>
-      <c r="E6">
-        <v>0.2062785864384515</v>
-      </c>
-      <c r="F6">
+      <c r="I6">
+        <v>10.54317485541254</v>
+      </c>
+      <c r="J6">
         <v>6.245326203686531</v>
-      </c>
-      <c r="G6">
-        <v>0.916230768269628</v>
-      </c>
-      <c r="H6">
-        <v>0.1250686998274139</v>
-      </c>
-      <c r="I6">
-        <v>0.4283801285732389</v>
-      </c>
-      <c r="J6">
-        <v>10.54317485541254</v>
       </c>
       <c r="K6">
         <v>6.245326203686531</v>
@@ -862,55 +874,55 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.138255489078458</v>
+        <v>1.138255489078459</v>
       </c>
       <c r="D7">
-        <v>1.121927668444941</v>
+        <v>0.9501802050433337</v>
       </c>
       <c r="E7">
-        <v>1.048918389728348</v>
+        <v>1.075870391784044</v>
       </c>
       <c r="F7">
-        <v>1.138255489078458</v>
+        <v>1.031156307382598</v>
       </c>
       <c r="G7">
-        <v>1.075870391784044</v>
+        <v>1.048918389728349</v>
       </c>
       <c r="H7">
-        <v>0.9501802050433326</v>
+        <v>1.121927668444944</v>
       </c>
       <c r="I7">
-        <v>1.031156307382598</v>
+        <v>1.121927668444944</v>
       </c>
       <c r="J7">
-        <v>1.121927668444941</v>
+        <v>1.138255489078459</v>
       </c>
       <c r="K7">
-        <v>1.138255489078458</v>
+        <v>1.138255489078459</v>
       </c>
       <c r="L7">
-        <v>1.048918389728348</v>
+        <v>1.048918389728349</v>
       </c>
       <c r="M7">
-        <v>1.085423029086644</v>
+        <v>1.085423029086646</v>
       </c>
       <c r="N7">
-        <v>1.085423029086644</v>
+        <v>1.085423029086646</v>
       </c>
       <c r="O7">
-        <v>1.040342087738874</v>
+        <v>1.040342087738876</v>
       </c>
       <c r="P7">
-        <v>1.103033849083916</v>
+        <v>1.103033849083917</v>
       </c>
       <c r="Q7">
-        <v>1.103033849083916</v>
+        <v>1.103033849083917</v>
       </c>
       <c r="R7">
-        <v>1.111839259082551</v>
+        <v>1.111839259082553</v>
       </c>
       <c r="S7">
-        <v>1.111839259082551</v>
+        <v>1.111839259082553</v>
       </c>
       <c r="T7">
         <v>1.061051408576954</v>
@@ -924,31 +936,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.230451384569142</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="D8">
+        <v>0.9487485782157422</v>
+      </c>
+      <c r="E8">
+        <v>1.092875682579122</v>
+      </c>
+      <c r="F8">
+        <v>1.028720950819692</v>
+      </c>
+      <c r="G8">
+        <v>1.037489788170774</v>
+      </c>
+      <c r="H8">
         <v>1.20659613688094</v>
       </c>
-      <c r="E8">
-        <v>1.037489788170774</v>
-      </c>
-      <c r="F8">
-        <v>1.230451384569142</v>
-      </c>
-      <c r="G8">
-        <v>1.092875682579118</v>
-      </c>
-      <c r="H8">
-        <v>0.9487485782157411</v>
-      </c>
       <c r="I8">
-        <v>1.02872095081969</v>
+        <v>1.20659613688094</v>
       </c>
       <c r="J8">
-        <v>1.20659613688094</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="K8">
-        <v>1.230451384569142</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="L8">
         <v>1.037489788170774</v>
@@ -960,22 +972,22 @@
         <v>1.122042962525857</v>
       </c>
       <c r="O8">
-        <v>1.064278167755818</v>
+        <v>1.064278167755819</v>
       </c>
       <c r="P8">
-        <v>1.158179103206952</v>
+        <v>1.158179103206959</v>
       </c>
       <c r="Q8">
-        <v>1.158179103206952</v>
+        <v>1.158179103206959</v>
       </c>
       <c r="R8">
-        <v>1.1762471735475</v>
+        <v>1.17624717354751</v>
       </c>
       <c r="S8">
-        <v>1.1762471735475</v>
+        <v>1.17624717354751</v>
       </c>
       <c r="T8">
-        <v>1.090813753539234</v>
+        <v>1.090813753539239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,25 +1001,25 @@
         <v>1.184102069801898</v>
       </c>
       <c r="D9">
+        <v>0.923166312366963</v>
+      </c>
+      <c r="E9">
+        <v>0.9480340125754586</v>
+      </c>
+      <c r="F9">
+        <v>1.05787796425297</v>
+      </c>
+      <c r="G9">
+        <v>0.9587407428452084</v>
+      </c>
+      <c r="H9">
         <v>1.623599917825078</v>
       </c>
-      <c r="E9">
-        <v>0.9587407428452084</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
+        <v>1.623599917825078</v>
+      </c>
+      <c r="J9">
         <v>1.184102069801898</v>
-      </c>
-      <c r="G9">
-        <v>0.9480340125754586</v>
-      </c>
-      <c r="H9">
-        <v>0.923166312366963</v>
-      </c>
-      <c r="I9">
-        <v>1.05787796425297</v>
-      </c>
-      <c r="J9">
-        <v>1.623599917825078</v>
       </c>
       <c r="K9">
         <v>1.184102069801898</v>
@@ -1051,25 +1063,25 @@
         <v>1.806087314186836</v>
       </c>
       <c r="D10">
+        <v>0.9340881945024022</v>
+      </c>
+      <c r="E10">
+        <v>0.6487610034163217</v>
+      </c>
+      <c r="F10">
+        <v>0.943368655669459</v>
+      </c>
+      <c r="G10">
+        <v>0.7854421696340089</v>
+      </c>
+      <c r="H10">
         <v>1.734882559392015</v>
       </c>
-      <c r="E10">
-        <v>0.7854421696340089</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
+        <v>1.734882559392015</v>
+      </c>
+      <c r="J10">
         <v>1.806087314186836</v>
-      </c>
-      <c r="G10">
-        <v>0.6487610034163217</v>
-      </c>
-      <c r="H10">
-        <v>0.9340881945024022</v>
-      </c>
-      <c r="I10">
-        <v>0.943368655669459</v>
-      </c>
-      <c r="J10">
-        <v>1.734882559392015</v>
       </c>
       <c r="K10">
         <v>1.806087314186836</v>
@@ -1113,52 +1125,52 @@
         <v>2.661343158584538</v>
       </c>
       <c r="D11">
+        <v>0.8256498028851025</v>
+      </c>
+      <c r="E11">
+        <v>1.045622785961996</v>
+      </c>
+      <c r="F11">
+        <v>0.8716980875580387</v>
+      </c>
+      <c r="G11">
+        <v>1.080867209023134</v>
+      </c>
+      <c r="H11">
         <v>3.202567282303995</v>
       </c>
-      <c r="E11">
-        <v>1.080867209023135</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
+        <v>3.202567282303995</v>
+      </c>
+      <c r="J11">
         <v>2.661343158584538</v>
-      </c>
-      <c r="G11">
-        <v>1.045622785961996</v>
-      </c>
-      <c r="H11">
-        <v>0.825649802885102</v>
-      </c>
-      <c r="I11">
-        <v>0.8716980875580389</v>
-      </c>
-      <c r="J11">
-        <v>3.202567282303995</v>
       </c>
       <c r="K11">
         <v>2.661343158584538</v>
       </c>
       <c r="L11">
-        <v>1.080867209023135</v>
+        <v>1.080867209023134</v>
       </c>
       <c r="M11">
-        <v>2.141717245663565</v>
+        <v>2.141717245663564</v>
       </c>
       <c r="N11">
-        <v>2.141717245663565</v>
+        <v>2.141717245663564</v>
       </c>
       <c r="O11">
         <v>1.703028098070744</v>
       </c>
       <c r="P11">
-        <v>2.31492588330389</v>
+        <v>2.314925883303889</v>
       </c>
       <c r="Q11">
-        <v>2.31492588330389</v>
+        <v>2.314925883303889</v>
       </c>
       <c r="R11">
-        <v>2.401530202124052</v>
+        <v>2.401530202124051</v>
       </c>
       <c r="S11">
-        <v>2.401530202124052</v>
+        <v>2.401530202124051</v>
       </c>
       <c r="T11">
         <v>1.614624721052801</v>
@@ -1172,58 +1184,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-0.0003421703317369174</v>
+        <v>-0.0003421703317369149</v>
       </c>
       <c r="D12">
-        <v>0.004554680423049942</v>
+        <v>0.2984651631758272</v>
       </c>
       <c r="E12">
-        <v>0.5690785811988034</v>
+        <v>-0.002882229086911449</v>
       </c>
       <c r="F12">
-        <v>-0.0003421703317369174</v>
+        <v>1.19716049132486</v>
       </c>
       <c r="G12">
-        <v>-0.002882229086911449</v>
+        <v>0.5690785811988043</v>
       </c>
       <c r="H12">
-        <v>0.2984651631758275</v>
+        <v>0.004554680423049943</v>
       </c>
       <c r="I12">
-        <v>1.197160491324863</v>
+        <v>0.004554680423049943</v>
       </c>
       <c r="J12">
-        <v>0.004554680423049942</v>
+        <v>-0.0003421703317369149</v>
       </c>
       <c r="K12">
-        <v>-0.0003421703317369174</v>
+        <v>-0.0003421703317369149</v>
       </c>
       <c r="L12">
-        <v>0.5690785811988034</v>
+        <v>0.5690785811988043</v>
       </c>
       <c r="M12">
-        <v>0.2868166308109267</v>
+        <v>0.2868166308109271</v>
       </c>
       <c r="N12">
-        <v>0.2868166308109267</v>
+        <v>0.2868166308109271</v>
       </c>
       <c r="O12">
-        <v>0.2906994749325603</v>
+        <v>0.2906994749325605</v>
       </c>
       <c r="P12">
-        <v>0.1910970304300388</v>
+        <v>0.1910970304300391</v>
       </c>
       <c r="Q12">
-        <v>0.1910970304300388</v>
+        <v>0.1910970304300391</v>
       </c>
       <c r="R12">
-        <v>0.1432372302395949</v>
+        <v>0.1432372302395951</v>
       </c>
       <c r="S12">
-        <v>0.1432372302395949</v>
+        <v>0.1432372302395951</v>
       </c>
       <c r="T12">
-        <v>0.344339086117316</v>
+        <v>0.3443390861173155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.949016081697426</v>
+        <v>3.94901608169743</v>
       </c>
       <c r="D13">
+        <v>1.399430878682554</v>
+      </c>
+      <c r="E13">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="F13">
+        <v>0.2773127339309403</v>
+      </c>
+      <c r="G13">
+        <v>-0.0002601929223607322</v>
+      </c>
+      <c r="H13">
         <v>1.697035567127595</v>
       </c>
-      <c r="E13">
-        <v>-0.0002601929223607341</v>
-      </c>
-      <c r="F13">
-        <v>3.949016081697426</v>
-      </c>
-      <c r="G13">
-        <v>5.784812425470853</v>
-      </c>
-      <c r="H13">
-        <v>1.399430878682553</v>
-      </c>
       <c r="I13">
-        <v>0.27731273393094</v>
+        <v>1.697035567127595</v>
       </c>
       <c r="J13">
-        <v>1.697035567127595</v>
+        <v>3.94901608169743</v>
       </c>
       <c r="K13">
-        <v>3.949016081697426</v>
+        <v>3.94901608169743</v>
       </c>
       <c r="L13">
-        <v>-0.0002601929223607341</v>
+        <v>-0.0002601929223607322</v>
       </c>
       <c r="M13">
         <v>0.848387687102617</v>
@@ -1273,16 +1285,16 @@
         <v>1.032068750962596</v>
       </c>
       <c r="P13">
-        <v>1.881930485300887</v>
+        <v>1.881930485300888</v>
       </c>
       <c r="Q13">
-        <v>1.881930485300887</v>
+        <v>1.881930485300888</v>
       </c>
       <c r="R13">
-        <v>2.398701884400022</v>
+        <v>2.398701884400023</v>
       </c>
       <c r="S13">
-        <v>2.398701884400022</v>
+        <v>2.398701884400023</v>
       </c>
       <c r="T13">
         <v>2.184557915664501</v>
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0003899418825473288</v>
+        <v>-0.0003899418825473299</v>
       </c>
       <c r="D14">
-        <v>11.32531120823989</v>
+        <v>1.939450867039165</v>
       </c>
       <c r="E14">
-        <v>-0.0005623933642230907</v>
+        <v>0.0006168176677112139</v>
       </c>
       <c r="F14">
-        <v>-0.0003899418825473288</v>
+        <v>-0.0004015883134759693</v>
       </c>
       <c r="G14">
-        <v>0.0006168176677112143</v>
+        <v>-0.0005623933642230922</v>
       </c>
       <c r="H14">
-        <v>1.939450867039163</v>
+        <v>11.3253112082399</v>
       </c>
       <c r="I14">
-        <v>-0.0004015883134759706</v>
+        <v>11.3253112082399</v>
       </c>
       <c r="J14">
-        <v>11.32531120823989</v>
+        <v>-0.0003899418825473299</v>
       </c>
       <c r="K14">
-        <v>-0.0003899418825473288</v>
+        <v>-0.0003899418825473299</v>
       </c>
       <c r="L14">
-        <v>-0.0005623933642230907</v>
+        <v>-0.0005623933642230922</v>
       </c>
       <c r="M14">
-        <v>5.662374407437833</v>
+        <v>5.662374407437837</v>
       </c>
       <c r="N14">
-        <v>5.662374407437833</v>
+        <v>5.662374407437837</v>
       </c>
       <c r="O14">
-        <v>4.42139989397161</v>
+        <v>4.421399893971613</v>
       </c>
       <c r="P14">
-        <v>3.774786290997707</v>
+        <v>3.774786290997709</v>
       </c>
       <c r="Q14">
-        <v>3.774786290997707</v>
+        <v>3.774786290997709</v>
       </c>
       <c r="R14">
-        <v>2.830992232777643</v>
+        <v>2.830992232777645</v>
       </c>
       <c r="S14">
-        <v>2.830992232777643</v>
+        <v>2.830992232777645</v>
       </c>
       <c r="T14">
-        <v>2.210670828231086</v>
+        <v>2.210670828231088</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1361,25 +1373,25 @@
         <v>0.03481782273777063</v>
       </c>
       <c r="D15">
-        <v>-0.002695329012334536</v>
+        <v>1.5791847424298</v>
       </c>
       <c r="E15">
+        <v>-0.0009909289670925157</v>
+      </c>
+      <c r="F15">
+        <v>1.178403091363843</v>
+      </c>
+      <c r="G15">
         <v>1.60972298834738</v>
       </c>
-      <c r="F15">
+      <c r="H15">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="I15">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="J15">
         <v>0.03481782273777063</v>
-      </c>
-      <c r="G15">
-        <v>-0.0009909289670925149</v>
-      </c>
-      <c r="H15">
-        <v>1.5791847424298</v>
-      </c>
-      <c r="I15">
-        <v>1.178403091363843</v>
-      </c>
-      <c r="J15">
-        <v>-0.002695329012334536</v>
       </c>
       <c r="K15">
         <v>0.03481782273777063</v>
@@ -1388,28 +1400,28 @@
         <v>1.60972298834738</v>
       </c>
       <c r="M15">
-        <v>0.8035138296675225</v>
+        <v>0.8035138296675229</v>
       </c>
       <c r="N15">
-        <v>0.8035138296675225</v>
+        <v>0.8035138296675229</v>
       </c>
       <c r="O15">
         <v>1.062070800588282</v>
       </c>
       <c r="P15">
-        <v>0.5472818273576052</v>
+        <v>0.5472818273576056</v>
       </c>
       <c r="Q15">
-        <v>0.5472818273576052</v>
+        <v>0.5472818273576056</v>
       </c>
       <c r="R15">
-        <v>0.4191658262026466</v>
+        <v>0.4191658262026468</v>
       </c>
       <c r="S15">
-        <v>0.4191658262026466</v>
+        <v>0.4191658262026468</v>
       </c>
       <c r="T15">
-        <v>0.7330737311498944</v>
+        <v>0.7330737311498945</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.129647210132084</v>
+        <v>3.980544117171519</v>
       </c>
       <c r="D16">
-        <v>1.024851449846393</v>
+        <v>0.2067126109289304</v>
       </c>
       <c r="E16">
-        <v>1.08923183423657</v>
+        <v>8.742234599680671</v>
       </c>
       <c r="F16">
-        <v>1.129647210132084</v>
+        <v>0.2365406741835516</v>
       </c>
       <c r="G16">
-        <v>1.039934218879059</v>
+        <v>3.066306711732128</v>
       </c>
       <c r="H16">
-        <v>0.9551086858860947</v>
+        <v>5.927407999352345</v>
       </c>
       <c r="I16">
-        <v>1.037144558950829</v>
+        <v>5.927407999352345</v>
       </c>
       <c r="J16">
-        <v>1.024851449846393</v>
+        <v>3.980544117171519</v>
       </c>
       <c r="K16">
-        <v>1.129647210132084</v>
+        <v>3.980544117171519</v>
       </c>
       <c r="L16">
-        <v>1.08923183423657</v>
+        <v>3.066306711732128</v>
       </c>
       <c r="M16">
-        <v>1.057041642041482</v>
+        <v>4.496857355542237</v>
       </c>
       <c r="N16">
-        <v>1.057041642041482</v>
+        <v>4.496857355542237</v>
       </c>
       <c r="O16">
-        <v>1.023063989989686</v>
+        <v>3.066809107337801</v>
       </c>
       <c r="P16">
-        <v>1.081243498071683</v>
+        <v>4.324752942751998</v>
       </c>
       <c r="Q16">
-        <v>1.081243498071683</v>
+        <v>4.324752942751998</v>
       </c>
       <c r="R16">
-        <v>1.093344426086783</v>
+        <v>4.238700736356877</v>
       </c>
       <c r="S16">
-        <v>1.093344426086783</v>
+        <v>4.238700736356877</v>
       </c>
       <c r="T16">
-        <v>1.045986326321838</v>
+        <v>3.693291118841524</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9862463819789551</v>
+        <v>4.241320840595076</v>
       </c>
       <c r="D17">
-        <v>1.254579280824669</v>
+        <v>0.4111762143476667</v>
       </c>
       <c r="E17">
-        <v>0.9741665222393687</v>
+        <v>6.151589688688708</v>
       </c>
       <c r="F17">
-        <v>0.9862463819789551</v>
+        <v>0.4799964118749091</v>
       </c>
       <c r="G17">
-        <v>1.253375835565659</v>
+        <v>2.355727160999691</v>
       </c>
       <c r="H17">
-        <v>0.95386042839621</v>
+        <v>4.326412262176837</v>
       </c>
       <c r="I17">
-        <v>1.027442230794067</v>
+        <v>4.326412262176837</v>
       </c>
       <c r="J17">
-        <v>1.254579280824669</v>
+        <v>4.241320840595076</v>
       </c>
       <c r="K17">
-        <v>0.9862463819789551</v>
+        <v>4.241320840595076</v>
       </c>
       <c r="L17">
-        <v>0.9741665222393687</v>
+        <v>2.355727160999691</v>
       </c>
       <c r="M17">
-        <v>1.114372901532019</v>
+        <v>3.341069711588264</v>
       </c>
       <c r="N17">
-        <v>1.114372901532019</v>
+        <v>3.341069711588264</v>
       </c>
       <c r="O17">
-        <v>1.060868743820083</v>
+        <v>2.364438545841398</v>
       </c>
       <c r="P17">
-        <v>1.071664061680998</v>
+        <v>3.641153421257201</v>
       </c>
       <c r="Q17">
-        <v>1.071664061680998</v>
+        <v>3.641153421257202</v>
       </c>
       <c r="R17">
-        <v>1.050309641755487</v>
+        <v>3.791195276091671</v>
       </c>
       <c r="S17">
-        <v>1.050309641755487</v>
+        <v>3.791195276091671</v>
       </c>
       <c r="T17">
-        <v>1.074945113299822</v>
+        <v>2.994370429780481</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.117771084540931</v>
+        <v>4.399178354956702</v>
       </c>
       <c r="D18">
-        <v>2.158029257426949</v>
+        <v>0.720359796447228</v>
       </c>
       <c r="E18">
-        <v>0.8750763187241264</v>
+        <v>0.7495411352952546</v>
       </c>
       <c r="F18">
-        <v>1.117771084540931</v>
+        <v>0.6549214206440748</v>
       </c>
       <c r="G18">
-        <v>0.453465029176684</v>
+        <v>0.7235617124877119</v>
       </c>
       <c r="H18">
-        <v>0.6929678729736511</v>
+        <v>1.700032487750397</v>
       </c>
       <c r="I18">
-        <v>0.9120937629321851</v>
+        <v>1.700032487750397</v>
       </c>
       <c r="J18">
-        <v>2.158029257426949</v>
+        <v>4.399178354956702</v>
       </c>
       <c r="K18">
-        <v>1.117771084540931</v>
+        <v>4.399178354956702</v>
       </c>
       <c r="L18">
-        <v>0.8750763187241264</v>
+        <v>0.7235617124877119</v>
       </c>
       <c r="M18">
-        <v>1.516552788075538</v>
+        <v>1.211797100119055</v>
       </c>
       <c r="N18">
-        <v>1.516552788075538</v>
+        <v>1.211797100119055</v>
       </c>
       <c r="O18">
-        <v>1.242024483041575</v>
+        <v>1.047984665561779</v>
       </c>
       <c r="P18">
-        <v>1.383625553564002</v>
+        <v>2.274257518398271</v>
       </c>
       <c r="Q18">
-        <v>1.383625553564002</v>
+        <v>2.274257518398271</v>
       </c>
       <c r="R18">
-        <v>1.317161936308235</v>
+        <v>2.805487727537878</v>
       </c>
       <c r="S18">
-        <v>1.317161936308235</v>
+        <v>2.805487727537878</v>
       </c>
       <c r="T18">
-        <v>1.034900554295754</v>
+        <v>1.491265817930228</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>6.137187536559376</v>
+      </c>
+      <c r="D19">
+        <v>0.7138292716954469</v>
+      </c>
+      <c r="E19">
+        <v>1.403938210528316</v>
+      </c>
+      <c r="F19">
+        <v>0.9589854932001965</v>
+      </c>
+      <c r="G19">
+        <v>0.9710118979087965</v>
+      </c>
+      <c r="H19">
+        <v>1.868939195950409</v>
+      </c>
+      <c r="I19">
+        <v>1.868939195950409</v>
+      </c>
+      <c r="J19">
+        <v>6.137187536559376</v>
+      </c>
+      <c r="K19">
+        <v>6.137187536559376</v>
+      </c>
+      <c r="L19">
+        <v>0.9710118979087965</v>
+      </c>
+      <c r="M19">
+        <v>1.419975546929603</v>
+      </c>
+      <c r="N19">
+        <v>1.419975546929603</v>
+      </c>
+      <c r="O19">
+        <v>1.184593455184884</v>
+      </c>
+      <c r="P19">
+        <v>2.992379543472861</v>
+      </c>
+      <c r="Q19">
+        <v>2.992379543472861</v>
+      </c>
+      <c r="R19">
+        <v>3.778581541744489</v>
+      </c>
+      <c r="S19">
+        <v>3.778581541744489</v>
+      </c>
+      <c r="T19">
+        <v>2.00898193430709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.129647210132086</v>
+      </c>
+      <c r="D20">
+        <v>0.9551086858860941</v>
+      </c>
+      <c r="E20">
+        <v>1.039934218879061</v>
+      </c>
+      <c r="F20">
+        <v>1.03714455895083</v>
+      </c>
+      <c r="G20">
+        <v>1.089231834236571</v>
+      </c>
+      <c r="H20">
+        <v>1.024851449846393</v>
+      </c>
+      <c r="I20">
+        <v>1.024851449846393</v>
+      </c>
+      <c r="J20">
+        <v>1.129647210132086</v>
+      </c>
+      <c r="K20">
+        <v>1.129647210132086</v>
+      </c>
+      <c r="L20">
+        <v>1.089231834236571</v>
+      </c>
+      <c r="M20">
+        <v>1.057041642041482</v>
+      </c>
+      <c r="N20">
+        <v>1.057041642041482</v>
+      </c>
+      <c r="O20">
+        <v>1.023063989989686</v>
+      </c>
+      <c r="P20">
+        <v>1.081243498071683</v>
+      </c>
+      <c r="Q20">
+        <v>1.081243498071683</v>
+      </c>
+      <c r="R20">
+        <v>1.093344426086784</v>
+      </c>
+      <c r="S20">
+        <v>1.093344426086784</v>
+      </c>
+      <c r="T20">
+        <v>1.045986326321839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9862463819789583</v>
+      </c>
+      <c r="D21">
+        <v>0.9538604283962088</v>
+      </c>
+      <c r="E21">
+        <v>1.253375835565662</v>
+      </c>
+      <c r="F21">
+        <v>1.027442230794068</v>
+      </c>
+      <c r="G21">
+        <v>0.9741665222393703</v>
+      </c>
+      <c r="H21">
+        <v>1.25457928082467</v>
+      </c>
+      <c r="I21">
+        <v>1.25457928082467</v>
+      </c>
+      <c r="J21">
+        <v>0.9862463819789583</v>
+      </c>
+      <c r="K21">
+        <v>0.9862463819789583</v>
+      </c>
+      <c r="L21">
+        <v>0.9741665222393703</v>
+      </c>
+      <c r="M21">
+        <v>1.11437290153202</v>
+      </c>
+      <c r="N21">
+        <v>1.11437290153202</v>
+      </c>
+      <c r="O21">
+        <v>1.060868743820083</v>
+      </c>
+      <c r="P21">
+        <v>1.071664061681</v>
+      </c>
+      <c r="Q21">
+        <v>1.071664061681</v>
+      </c>
+      <c r="R21">
+        <v>1.050309641755489</v>
+      </c>
+      <c r="S21">
+        <v>1.050309641755489</v>
+      </c>
+      <c r="T21">
+        <v>1.074945113299823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.117771084540937</v>
+      </c>
+      <c r="D22">
+        <v>0.6929678729736506</v>
+      </c>
+      <c r="E22">
+        <v>0.4534650291766862</v>
+      </c>
+      <c r="F22">
+        <v>0.9120937629321865</v>
+      </c>
+      <c r="G22">
+        <v>0.8750763187241302</v>
+      </c>
+      <c r="H22">
+        <v>2.158029257426955</v>
+      </c>
+      <c r="I22">
+        <v>2.158029257426955</v>
+      </c>
+      <c r="J22">
+        <v>1.117771084540937</v>
+      </c>
+      <c r="K22">
+        <v>1.117771084540937</v>
+      </c>
+      <c r="L22">
+        <v>0.8750763187241302</v>
+      </c>
+      <c r="M22">
+        <v>1.516552788075543</v>
+      </c>
+      <c r="N22">
+        <v>1.516552788075543</v>
+      </c>
+      <c r="O22">
+        <v>1.242024483041579</v>
+      </c>
+      <c r="P22">
+        <v>1.383625553564007</v>
+      </c>
+      <c r="Q22">
+        <v>1.383625553564007</v>
+      </c>
+      <c r="R22">
+        <v>1.31716193630824</v>
+      </c>
+      <c r="S22">
+        <v>1.31716193630824</v>
+      </c>
+      <c r="T22">
+        <v>1.034900554295757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.591390138497335</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.398557080739225</v>
+      </c>
+      <c r="E23">
+        <v>0.3881501515463838</v>
+      </c>
+      <c r="F23">
+        <v>0.9610114637170888</v>
+      </c>
+      <c r="G23">
+        <v>0.524042502800106</v>
+      </c>
+      <c r="H23">
         <v>0.163138098782353</v>
       </c>
-      <c r="E19">
-        <v>0.5240425028001061</v>
-      </c>
-      <c r="F19">
+      <c r="I23">
+        <v>0.163138098782353</v>
+      </c>
+      <c r="J23">
         <v>1.591390138497335</v>
       </c>
-      <c r="G19">
-        <v>0.3881501515463838</v>
-      </c>
-      <c r="H19">
-        <v>1.398557080739225</v>
-      </c>
-      <c r="I19">
-        <v>0.9610114637170888</v>
-      </c>
-      <c r="J19">
-        <v>0.163138098782353</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.591390138497335</v>
       </c>
-      <c r="L19">
-        <v>0.5240425028001061</v>
-      </c>
-      <c r="M19">
+      <c r="L23">
+        <v>0.524042502800106</v>
+      </c>
+      <c r="M23">
         <v>0.3435903007912295</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.3435903007912295</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.6952458941072278</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.759523580026598</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.759523580026598</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9674902196442823</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9674902196442823</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.8377149060137485</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.345159600979164</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="D3">
-        <v>0.9146373514973861</v>
+        <v>0.771308351057659</v>
       </c>
       <c r="E3">
-        <v>1.569254074824068</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="F3">
-        <v>0.9662066938889495</v>
+        <v>0.9090625261027812</v>
       </c>
       <c r="G3">
-        <v>1.156904908299804</v>
+        <v>1.01307189253619</v>
       </c>
       <c r="H3">
-        <v>1.430420888209043</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="I3">
-        <v>1.430420888209043</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="J3">
-        <v>1.345159600979164</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="K3">
-        <v>1.345159600979164</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="L3">
-        <v>1.156904908299804</v>
+        <v>1.01307189253619</v>
       </c>
       <c r="M3">
-        <v>1.293662898254424</v>
+        <v>1.104472911263751</v>
       </c>
       <c r="N3">
-        <v>1.293662898254424</v>
+        <v>1.104472911263751</v>
       </c>
       <c r="O3">
-        <v>1.167321049335411</v>
+        <v>0.99341805786172</v>
       </c>
       <c r="P3">
-        <v>1.310828465829337</v>
+        <v>3.255716276548684</v>
       </c>
       <c r="Q3">
-        <v>1.310828465829337</v>
+        <v>3.255716276548684</v>
       </c>
       <c r="R3">
-        <v>1.319411249616794</v>
+        <v>4.331337959191149</v>
       </c>
       <c r="S3">
-        <v>1.319411249616794</v>
+        <v>4.331337959191149</v>
       </c>
       <c r="T3">
-        <v>1.230430586283069</v>
+        <v>2.127219454277723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.334292287912513</v>
+        <v>6.016934784118615</v>
       </c>
       <c r="D4">
-        <v>0.8172320540202065</v>
+        <v>0.7980363780622466</v>
       </c>
       <c r="E4">
-        <v>2.502563244388664</v>
+        <v>1.1332177982499</v>
       </c>
       <c r="F4">
-        <v>1.137814685895308</v>
+        <v>0.9408163479431789</v>
       </c>
       <c r="G4">
-        <v>1.312414567097076</v>
+        <v>0.9723718249721355</v>
       </c>
       <c r="H4">
-        <v>1.737050942784302</v>
+        <v>1.017169425626937</v>
       </c>
       <c r="I4">
-        <v>1.737050942784302</v>
+        <v>1.017169425626937</v>
       </c>
       <c r="J4">
-        <v>1.334292287912513</v>
+        <v>6.016934784118615</v>
       </c>
       <c r="K4">
-        <v>1.334292287912513</v>
+        <v>6.016934784118615</v>
       </c>
       <c r="L4">
-        <v>1.312414567097076</v>
+        <v>0.9723718249721355</v>
       </c>
       <c r="M4">
-        <v>1.524732754940689</v>
+        <v>0.9947706252995363</v>
       </c>
       <c r="N4">
-        <v>1.524732754940689</v>
+        <v>0.9947706252995363</v>
       </c>
       <c r="O4">
-        <v>1.288899187967195</v>
+        <v>0.9291925428871064</v>
       </c>
       <c r="P4">
-        <v>1.46125259926463</v>
+        <v>2.668825344905896</v>
       </c>
       <c r="Q4">
-        <v>1.46125259926463</v>
+        <v>2.668825344905896</v>
       </c>
       <c r="R4">
-        <v>1.429512521426601</v>
+        <v>3.505852704709076</v>
       </c>
       <c r="S4">
-        <v>1.429512521426601</v>
+        <v>3.505852704709076</v>
       </c>
       <c r="T4">
-        <v>1.473561297016345</v>
+        <v>1.813091093162169</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.980036563290933</v>
+        <v>13.39511680595366</v>
       </c>
       <c r="D5">
-        <v>0.8982227354972873</v>
+        <v>0.4473096023198595</v>
       </c>
       <c r="E5">
-        <v>0.9767920905391435</v>
+        <v>0.4497768213066308</v>
       </c>
       <c r="F5">
-        <v>0.9434244496414078</v>
+        <v>0.8152812374750943</v>
       </c>
       <c r="G5">
-        <v>1.535580148296976</v>
+        <v>0.8420892082864261</v>
       </c>
       <c r="H5">
-        <v>3.825208956509219</v>
+        <v>2.124501402749595</v>
       </c>
       <c r="I5">
-        <v>3.825208956509219</v>
+        <v>2.124501402749595</v>
       </c>
       <c r="J5">
-        <v>2.980036563290933</v>
+        <v>13.39511680595366</v>
       </c>
       <c r="K5">
-        <v>2.980036563290933</v>
+        <v>13.39511680595366</v>
       </c>
       <c r="L5">
-        <v>1.535580148296976</v>
+        <v>0.8420892082864261</v>
       </c>
       <c r="M5">
-        <v>2.680394552403097</v>
+        <v>1.483295305518011</v>
       </c>
       <c r="N5">
-        <v>2.680394552403097</v>
+        <v>1.483295305518011</v>
       </c>
       <c r="O5">
-        <v>2.086337280101161</v>
+        <v>1.137966737785294</v>
       </c>
       <c r="P5">
-        <v>2.780275222699042</v>
+        <v>5.453902472329895</v>
       </c>
       <c r="Q5">
-        <v>2.780275222699042</v>
+        <v>5.453902472329896</v>
       </c>
       <c r="R5">
-        <v>2.830215557847015</v>
+        <v>7.439206055735838</v>
       </c>
       <c r="S5">
-        <v>2.830215557847015</v>
+        <v>7.439206055735838</v>
       </c>
       <c r="T5">
-        <v>1.859877490629161</v>
+        <v>3.012345846348545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.245326203686531</v>
+        <v>19.54388932252721</v>
       </c>
       <c r="D6">
-        <v>0.1250686998274139</v>
+        <v>1.144951156600784</v>
       </c>
       <c r="E6">
-        <v>0.916230768269628</v>
+        <v>0.3430268014454547</v>
       </c>
       <c r="F6">
-        <v>0.4283801285732389</v>
+        <v>0.3104226460362498</v>
       </c>
       <c r="G6">
-        <v>0.2062785864384515</v>
+        <v>0.9476959098221133</v>
       </c>
       <c r="H6">
-        <v>10.54317485541254</v>
+        <v>6.880483042335115</v>
       </c>
       <c r="I6">
-        <v>10.54317485541254</v>
+        <v>6.880483042335115</v>
       </c>
       <c r="J6">
-        <v>6.245326203686531</v>
+        <v>19.54388932252721</v>
       </c>
       <c r="K6">
-        <v>6.245326203686531</v>
+        <v>19.54388932252721</v>
       </c>
       <c r="L6">
-        <v>0.2062785864384515</v>
+        <v>0.9476959098221133</v>
       </c>
       <c r="M6">
-        <v>5.374726720925494</v>
+        <v>3.914089476078614</v>
       </c>
       <c r="N6">
-        <v>5.374726720925494</v>
+        <v>3.914089476078614</v>
       </c>
       <c r="O6">
-        <v>3.624840713892801</v>
+        <v>2.991043369586004</v>
       </c>
       <c r="P6">
-        <v>5.664926548512507</v>
+        <v>9.124022758228145</v>
       </c>
       <c r="Q6">
-        <v>5.664926548512507</v>
+        <v>9.124022758228145</v>
       </c>
       <c r="R6">
-        <v>5.810026462306013</v>
+        <v>11.72898939930291</v>
       </c>
       <c r="S6">
-        <v>5.810026462306013</v>
+        <v>11.72898939930291</v>
       </c>
       <c r="T6">
-        <v>3.0774098737013</v>
+        <v>4.86174481312782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.138255489078459</v>
+        <v>0.4562969846275526</v>
       </c>
       <c r="D7">
-        <v>0.9501802050433337</v>
+        <v>0.002289791882793975</v>
       </c>
       <c r="E7">
-        <v>1.075870391784044</v>
+        <v>11.92620647302221</v>
       </c>
       <c r="F7">
-        <v>1.031156307382598</v>
+        <v>-0.007269165095702055</v>
       </c>
       <c r="G7">
-        <v>1.048918389728349</v>
+        <v>3.978087136711241</v>
       </c>
       <c r="H7">
-        <v>1.121927668444944</v>
+        <v>8.577422054032702</v>
       </c>
       <c r="I7">
-        <v>1.121927668444944</v>
+        <v>8.577422054032702</v>
       </c>
       <c r="J7">
-        <v>1.138255489078459</v>
+        <v>0.4562969846275526</v>
       </c>
       <c r="K7">
-        <v>1.138255489078459</v>
+        <v>0.4562969846275526</v>
       </c>
       <c r="L7">
-        <v>1.048918389728349</v>
+        <v>3.978087136711241</v>
       </c>
       <c r="M7">
-        <v>1.085423029086646</v>
+        <v>6.277754595371972</v>
       </c>
       <c r="N7">
-        <v>1.085423029086646</v>
+        <v>6.277754595371972</v>
       </c>
       <c r="O7">
-        <v>1.040342087738876</v>
+        <v>4.185932994208913</v>
       </c>
       <c r="P7">
-        <v>1.103033849083917</v>
+        <v>4.337268725123832</v>
       </c>
       <c r="Q7">
-        <v>1.103033849083917</v>
+        <v>4.337268725123832</v>
       </c>
       <c r="R7">
-        <v>1.111839259082553</v>
+        <v>3.367025789999762</v>
       </c>
       <c r="S7">
-        <v>1.111839259082553</v>
+        <v>3.367025789999762</v>
       </c>
       <c r="T7">
-        <v>1.061051408576954</v>
+        <v>4.155505545863465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.230451384569163</v>
+        <v>0.6933168727090753</v>
       </c>
       <c r="D8">
-        <v>0.9487485782157422</v>
+        <v>0.002216029919211659</v>
       </c>
       <c r="E8">
-        <v>1.092875682579122</v>
+        <v>11.85567036476542</v>
       </c>
       <c r="F8">
-        <v>1.028720950819692</v>
+        <v>-0.00725402253604594</v>
       </c>
       <c r="G8">
-        <v>1.037489788170774</v>
+        <v>3.957814197546023</v>
       </c>
       <c r="H8">
-        <v>1.20659613688094</v>
+        <v>8.979342344833363</v>
       </c>
       <c r="I8">
-        <v>1.20659613688094</v>
+        <v>8.979342344833363</v>
       </c>
       <c r="J8">
-        <v>1.230451384569163</v>
+        <v>0.6933168727090753</v>
       </c>
       <c r="K8">
-        <v>1.230451384569163</v>
+        <v>0.6933168727090753</v>
       </c>
       <c r="L8">
-        <v>1.037489788170774</v>
+        <v>3.957814197546023</v>
       </c>
       <c r="M8">
-        <v>1.122042962525857</v>
+        <v>6.468578271189693</v>
       </c>
       <c r="N8">
-        <v>1.122042962525857</v>
+        <v>6.468578271189693</v>
       </c>
       <c r="O8">
-        <v>1.064278167755819</v>
+        <v>4.313124190766199</v>
       </c>
       <c r="P8">
-        <v>1.158179103206959</v>
+        <v>4.54349113836282</v>
       </c>
       <c r="Q8">
-        <v>1.158179103206959</v>
+        <v>4.54349113836282</v>
       </c>
       <c r="R8">
-        <v>1.17624717354751</v>
+        <v>3.580947571949384</v>
       </c>
       <c r="S8">
-        <v>1.17624717354751</v>
+        <v>3.580947571949384</v>
       </c>
       <c r="T8">
-        <v>1.090813753539239</v>
+        <v>4.246850964539507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.184102069801898</v>
+        <v>1.140562909400463</v>
       </c>
       <c r="D9">
-        <v>0.923166312366963</v>
+        <v>0.002184489625386817</v>
       </c>
       <c r="E9">
-        <v>0.9480340125754586</v>
+        <v>11.80169573133098</v>
       </c>
       <c r="F9">
-        <v>1.05787796425297</v>
+        <v>-0.007253573126950076</v>
       </c>
       <c r="G9">
-        <v>0.9587407428452084</v>
+        <v>3.946367840675755</v>
       </c>
       <c r="H9">
-        <v>1.623599917825078</v>
+        <v>9.012833606601387</v>
       </c>
       <c r="I9">
-        <v>1.623599917825078</v>
+        <v>9.012833606601387</v>
       </c>
       <c r="J9">
-        <v>1.184102069801898</v>
+        <v>1.140562909400463</v>
       </c>
       <c r="K9">
-        <v>1.184102069801898</v>
+        <v>1.140562909400463</v>
       </c>
       <c r="L9">
-        <v>0.9587407428452084</v>
+        <v>3.946367840675755</v>
       </c>
       <c r="M9">
-        <v>1.291170330335143</v>
+        <v>6.479600723638571</v>
       </c>
       <c r="N9">
-        <v>1.291170330335143</v>
+        <v>6.479600723638571</v>
       </c>
       <c r="O9">
-        <v>1.16850232434575</v>
+        <v>4.32046197896751</v>
       </c>
       <c r="P9">
-        <v>1.255480910157395</v>
+        <v>4.699921452225868</v>
       </c>
       <c r="Q9">
-        <v>1.255480910157395</v>
+        <v>4.699921452225868</v>
       </c>
       <c r="R9">
-        <v>1.237636200068521</v>
+        <v>3.810081816519516</v>
       </c>
       <c r="S9">
-        <v>1.237636200068521</v>
+        <v>3.810081816519516</v>
       </c>
       <c r="T9">
-        <v>1.115920169944596</v>
+        <v>4.316065167417837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.806087314186836</v>
+        <v>2.016605698272615</v>
       </c>
       <c r="D10">
-        <v>0.9340881945024022</v>
+        <v>0.001991291834631505</v>
       </c>
       <c r="E10">
-        <v>0.6487610034163217</v>
+        <v>11.62289367372468</v>
       </c>
       <c r="F10">
-        <v>0.943368655669459</v>
+        <v>-0.007114991622057025</v>
       </c>
       <c r="G10">
-        <v>0.7854421696340089</v>
+        <v>3.894063401555906</v>
       </c>
       <c r="H10">
-        <v>1.734882559392015</v>
+        <v>11.08866927880058</v>
       </c>
       <c r="I10">
-        <v>1.734882559392015</v>
+        <v>11.08866927880058</v>
       </c>
       <c r="J10">
-        <v>1.806087314186836</v>
+        <v>2.016605698272615</v>
       </c>
       <c r="K10">
-        <v>1.806087314186836</v>
+        <v>2.016605698272615</v>
       </c>
       <c r="L10">
-        <v>0.7854421696340089</v>
+        <v>3.894063401555906</v>
       </c>
       <c r="M10">
-        <v>1.260162364513012</v>
+        <v>7.491366340178244</v>
       </c>
       <c r="N10">
-        <v>1.260162364513012</v>
+        <v>7.491366340178244</v>
       </c>
       <c r="O10">
-        <v>1.151470974509476</v>
+        <v>4.994907990730373</v>
       </c>
       <c r="P10">
-        <v>1.44213734773762</v>
+        <v>5.6664461262097</v>
       </c>
       <c r="Q10">
-        <v>1.44213734773762</v>
+        <v>5.666446126209702</v>
       </c>
       <c r="R10">
-        <v>1.533124839349924</v>
+        <v>4.75398601922543</v>
       </c>
       <c r="S10">
-        <v>1.533124839349924</v>
+        <v>4.75398601922543</v>
       </c>
       <c r="T10">
-        <v>1.142104982800174</v>
+        <v>4.76951805876106</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.661343158584538</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="D11">
-        <v>0.8256498028851025</v>
+        <v>0.9061941590403847</v>
       </c>
       <c r="E11">
-        <v>1.045622785961996</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="F11">
-        <v>0.8716980875580387</v>
+        <v>0.9776251728065969</v>
       </c>
       <c r="G11">
-        <v>1.080867209023134</v>
+        <v>1.154589893974013</v>
       </c>
       <c r="H11">
-        <v>3.202567282303995</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="I11">
-        <v>3.202567282303995</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="J11">
-        <v>2.661343158584538</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="K11">
-        <v>2.661343158584538</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="L11">
-        <v>1.080867209023134</v>
+        <v>1.154589893974013</v>
       </c>
       <c r="M11">
-        <v>2.141717245663564</v>
+        <v>1.23638205005522</v>
       </c>
       <c r="N11">
-        <v>2.141717245663564</v>
+        <v>1.23638205005522</v>
       </c>
       <c r="O11">
-        <v>1.703028098070744</v>
+        <v>1.126319419716942</v>
       </c>
       <c r="P11">
-        <v>2.314925883303889</v>
+        <v>1.245469834458911</v>
       </c>
       <c r="Q11">
-        <v>2.314925883303889</v>
+        <v>1.245469834458911</v>
       </c>
       <c r="R11">
-        <v>2.401530202124051</v>
+        <v>1.250013726660757</v>
       </c>
       <c r="S11">
-        <v>2.401530202124051</v>
+        <v>1.250013726660757</v>
       </c>
       <c r="T11">
-        <v>1.614624721052801</v>
+        <v>1.226103846461179</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-0.0003421703317369149</v>
+        <v>1.152760696011932</v>
       </c>
       <c r="D12">
-        <v>0.2984651631758272</v>
+        <v>0.9289536614180285</v>
       </c>
       <c r="E12">
-        <v>-0.002882229086911449</v>
+        <v>1.389121699234248</v>
       </c>
       <c r="F12">
-        <v>1.19716049132486</v>
+        <v>1.007009366193152</v>
       </c>
       <c r="G12">
-        <v>0.5690785811988043</v>
+        <v>1.130209651906521</v>
       </c>
       <c r="H12">
-        <v>0.004554680423049943</v>
+        <v>1.198661036827961</v>
       </c>
       <c r="I12">
-        <v>0.004554680423049943</v>
+        <v>1.198661036827961</v>
       </c>
       <c r="J12">
-        <v>-0.0003421703317369149</v>
+        <v>1.152760696011932</v>
       </c>
       <c r="K12">
-        <v>-0.0003421703317369149</v>
+        <v>1.152760696011932</v>
       </c>
       <c r="L12">
-        <v>0.5690785811988043</v>
+        <v>1.130209651906521</v>
       </c>
       <c r="M12">
-        <v>0.2868166308109271</v>
+        <v>1.164435344367241</v>
       </c>
       <c r="N12">
-        <v>0.2868166308109271</v>
+        <v>1.164435344367241</v>
       </c>
       <c r="O12">
-        <v>0.2906994749325605</v>
+        <v>1.085941450050837</v>
       </c>
       <c r="P12">
-        <v>0.1910970304300391</v>
+        <v>1.160543794915471</v>
       </c>
       <c r="Q12">
-        <v>0.1910970304300391</v>
+        <v>1.160543794915471</v>
       </c>
       <c r="R12">
-        <v>0.1432372302395951</v>
+        <v>1.158598020189586</v>
       </c>
       <c r="S12">
-        <v>0.1432372302395951</v>
+        <v>1.158598020189586</v>
       </c>
       <c r="T12">
-        <v>0.3443390861173155</v>
+        <v>1.134452685265307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.94901608169743</v>
+        <v>2.862091525598958</v>
       </c>
       <c r="D13">
-        <v>1.399430878682554</v>
+        <v>0.8953813988664736</v>
       </c>
       <c r="E13">
-        <v>5.784812425470848</v>
+        <v>0.577157880031178</v>
       </c>
       <c r="F13">
-        <v>0.2773127339309403</v>
+        <v>1.355363048700749</v>
       </c>
       <c r="G13">
-        <v>-0.0002601929223607322</v>
+        <v>1.052839322427121</v>
       </c>
       <c r="H13">
-        <v>1.697035567127595</v>
+        <v>2.328145933250242</v>
       </c>
       <c r="I13">
-        <v>1.697035567127595</v>
+        <v>2.328145933250242</v>
       </c>
       <c r="J13">
-        <v>3.94901608169743</v>
+        <v>2.862091525598958</v>
       </c>
       <c r="K13">
-        <v>3.94901608169743</v>
+        <v>2.862091525598958</v>
       </c>
       <c r="L13">
-        <v>-0.0002601929223607322</v>
+        <v>1.052839322427121</v>
       </c>
       <c r="M13">
-        <v>0.848387687102617</v>
+        <v>1.690492627838681</v>
       </c>
       <c r="N13">
-        <v>0.848387687102617</v>
+        <v>1.690492627838681</v>
       </c>
       <c r="O13">
-        <v>1.032068750962596</v>
+        <v>1.425455551514612</v>
       </c>
       <c r="P13">
-        <v>1.881930485300888</v>
+        <v>2.081025593758774</v>
       </c>
       <c r="Q13">
-        <v>1.881930485300888</v>
+        <v>2.081025593758774</v>
       </c>
       <c r="R13">
-        <v>2.398701884400023</v>
+        <v>2.27629207671882</v>
       </c>
       <c r="S13">
-        <v>2.398701884400023</v>
+        <v>2.27629207671882</v>
       </c>
       <c r="T13">
-        <v>2.184557915664501</v>
+        <v>1.51182985147912</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0003899418825473299</v>
+        <v>5.698313934795975</v>
       </c>
       <c r="D14">
-        <v>1.939450867039165</v>
+        <v>1.372369090744835</v>
       </c>
       <c r="E14">
-        <v>0.0006168176677112139</v>
+        <v>0.4928207696152412</v>
       </c>
       <c r="F14">
-        <v>-0.0004015883134759693</v>
+        <v>0.2060258321258193</v>
       </c>
       <c r="G14">
-        <v>-0.0005623933642230922</v>
+        <v>1.734713196541363</v>
       </c>
       <c r="H14">
-        <v>11.3253112082399</v>
+        <v>5.754044831141601</v>
       </c>
       <c r="I14">
-        <v>11.3253112082399</v>
+        <v>5.754044831141601</v>
       </c>
       <c r="J14">
-        <v>-0.0003899418825473299</v>
+        <v>5.698313934795975</v>
       </c>
       <c r="K14">
-        <v>-0.0003899418825473299</v>
+        <v>5.698313934795975</v>
       </c>
       <c r="L14">
-        <v>-0.0005623933642230922</v>
+        <v>1.734713196541363</v>
       </c>
       <c r="M14">
-        <v>5.662374407437837</v>
+        <v>3.744379013841482</v>
       </c>
       <c r="N14">
-        <v>5.662374407437837</v>
+        <v>3.744379013841482</v>
       </c>
       <c r="O14">
-        <v>4.421399893971613</v>
+        <v>2.953709039475933</v>
       </c>
       <c r="P14">
-        <v>3.774786290997709</v>
+        <v>4.395690654159647</v>
       </c>
       <c r="Q14">
-        <v>3.774786290997709</v>
+        <v>4.395690654159647</v>
       </c>
       <c r="R14">
-        <v>2.830992232777645</v>
+        <v>4.721346474318729</v>
       </c>
       <c r="S14">
-        <v>2.830992232777645</v>
+        <v>4.721346474318729</v>
       </c>
       <c r="T14">
-        <v>2.210670828231088</v>
+        <v>2.543047942494139</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.03481782273777063</v>
+        <v>1.345159600979164</v>
       </c>
       <c r="D15">
-        <v>1.5791847424298</v>
+        <v>0.9146373514973861</v>
       </c>
       <c r="E15">
-        <v>-0.0009909289670925157</v>
+        <v>1.569254074824068</v>
       </c>
       <c r="F15">
-        <v>1.178403091363843</v>
+        <v>0.9662066938889495</v>
       </c>
       <c r="G15">
-        <v>1.60972298834738</v>
+        <v>1.156904908299804</v>
       </c>
       <c r="H15">
-        <v>-0.002695329012334537</v>
+        <v>1.430420888209043</v>
       </c>
       <c r="I15">
-        <v>-0.002695329012334537</v>
+        <v>1.430420888209043</v>
       </c>
       <c r="J15">
-        <v>0.03481782273777063</v>
+        <v>1.345159600979164</v>
       </c>
       <c r="K15">
-        <v>0.03481782273777063</v>
+        <v>1.345159600979164</v>
       </c>
       <c r="L15">
-        <v>1.60972298834738</v>
+        <v>1.156904908299804</v>
       </c>
       <c r="M15">
-        <v>0.8035138296675229</v>
+        <v>1.293662898254424</v>
       </c>
       <c r="N15">
-        <v>0.8035138296675229</v>
+        <v>1.293662898254424</v>
       </c>
       <c r="O15">
-        <v>1.062070800588282</v>
+        <v>1.167321049335411</v>
       </c>
       <c r="P15">
-        <v>0.5472818273576056</v>
+        <v>1.310828465829337</v>
       </c>
       <c r="Q15">
-        <v>0.5472818273576056</v>
+        <v>1.310828465829337</v>
       </c>
       <c r="R15">
-        <v>0.4191658262026468</v>
+        <v>1.319411249616794</v>
       </c>
       <c r="S15">
-        <v>0.4191658262026468</v>
+        <v>1.319411249616794</v>
       </c>
       <c r="T15">
-        <v>0.7330737311498945</v>
+        <v>1.230430586283069</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.980544117171519</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="D16">
-        <v>0.2067126109289304</v>
+        <v>0.8172320540202065</v>
       </c>
       <c r="E16">
-        <v>8.742234599680671</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="F16">
-        <v>0.2365406741835516</v>
+        <v>1.137814685895308</v>
       </c>
       <c r="G16">
-        <v>3.066306711732128</v>
+        <v>1.312414567097076</v>
       </c>
       <c r="H16">
-        <v>5.927407999352345</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="I16">
-        <v>5.927407999352345</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="J16">
-        <v>3.980544117171519</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="K16">
-        <v>3.980544117171519</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="L16">
-        <v>3.066306711732128</v>
+        <v>1.312414567097076</v>
       </c>
       <c r="M16">
-        <v>4.496857355542237</v>
+        <v>1.524732754940689</v>
       </c>
       <c r="N16">
-        <v>4.496857355542237</v>
+        <v>1.524732754940689</v>
       </c>
       <c r="O16">
-        <v>3.066809107337801</v>
+        <v>1.288899187967195</v>
       </c>
       <c r="P16">
-        <v>4.324752942751998</v>
+        <v>1.46125259926463</v>
       </c>
       <c r="Q16">
-        <v>4.324752942751998</v>
+        <v>1.46125259926463</v>
       </c>
       <c r="R16">
-        <v>4.238700736356877</v>
+        <v>1.429512521426601</v>
       </c>
       <c r="S16">
-        <v>4.238700736356877</v>
+        <v>1.429512521426601</v>
       </c>
       <c r="T16">
-        <v>3.693291118841524</v>
+        <v>1.473561297016345</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.241320840595076</v>
+        <v>2.980036563290933</v>
       </c>
       <c r="D17">
-        <v>0.4111762143476667</v>
+        <v>0.8982227354972873</v>
       </c>
       <c r="E17">
-        <v>6.151589688688708</v>
+        <v>0.9767920905391435</v>
       </c>
       <c r="F17">
-        <v>0.4799964118749091</v>
+        <v>0.9434244496414078</v>
       </c>
       <c r="G17">
-        <v>2.355727160999691</v>
+        <v>1.535580148296976</v>
       </c>
       <c r="H17">
-        <v>4.326412262176837</v>
+        <v>3.825208956509219</v>
       </c>
       <c r="I17">
-        <v>4.326412262176837</v>
+        <v>3.825208956509219</v>
       </c>
       <c r="J17">
-        <v>4.241320840595076</v>
+        <v>2.980036563290933</v>
       </c>
       <c r="K17">
-        <v>4.241320840595076</v>
+        <v>2.980036563290933</v>
       </c>
       <c r="L17">
-        <v>2.355727160999691</v>
+        <v>1.535580148296976</v>
       </c>
       <c r="M17">
-        <v>3.341069711588264</v>
+        <v>2.680394552403097</v>
       </c>
       <c r="N17">
-        <v>3.341069711588264</v>
+        <v>2.680394552403097</v>
       </c>
       <c r="O17">
-        <v>2.364438545841398</v>
+        <v>2.086337280101161</v>
       </c>
       <c r="P17">
-        <v>3.641153421257201</v>
+        <v>2.780275222699042</v>
       </c>
       <c r="Q17">
-        <v>3.641153421257202</v>
+        <v>2.780275222699042</v>
       </c>
       <c r="R17">
-        <v>3.791195276091671</v>
+        <v>2.830215557847015</v>
       </c>
       <c r="S17">
-        <v>3.791195276091671</v>
+        <v>2.830215557847015</v>
       </c>
       <c r="T17">
-        <v>2.994370429780481</v>
+        <v>1.859877490629161</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>4.399178354956702</v>
+        <v>6.245326203686531</v>
       </c>
       <c r="D18">
-        <v>0.720359796447228</v>
+        <v>0.1250686998274139</v>
       </c>
       <c r="E18">
-        <v>0.7495411352952546</v>
+        <v>0.916230768269628</v>
       </c>
       <c r="F18">
-        <v>0.6549214206440748</v>
+        <v>0.4283801285732389</v>
       </c>
       <c r="G18">
-        <v>0.7235617124877119</v>
+        <v>0.2062785864384515</v>
       </c>
       <c r="H18">
-        <v>1.700032487750397</v>
+        <v>10.54317485541254</v>
       </c>
       <c r="I18">
-        <v>1.700032487750397</v>
+        <v>10.54317485541254</v>
       </c>
       <c r="J18">
-        <v>4.399178354956702</v>
+        <v>6.245326203686531</v>
       </c>
       <c r="K18">
-        <v>4.399178354956702</v>
+        <v>6.245326203686531</v>
       </c>
       <c r="L18">
-        <v>0.7235617124877119</v>
+        <v>0.2062785864384515</v>
       </c>
       <c r="M18">
-        <v>1.211797100119055</v>
+        <v>5.374726720925494</v>
       </c>
       <c r="N18">
-        <v>1.211797100119055</v>
+        <v>5.374726720925494</v>
       </c>
       <c r="O18">
-        <v>1.047984665561779</v>
+        <v>3.624840713892801</v>
       </c>
       <c r="P18">
-        <v>2.274257518398271</v>
+        <v>5.664926548512507</v>
       </c>
       <c r="Q18">
-        <v>2.274257518398271</v>
+        <v>5.664926548512507</v>
       </c>
       <c r="R18">
-        <v>2.805487727537878</v>
+        <v>5.810026462306013</v>
       </c>
       <c r="S18">
-        <v>2.805487727537878</v>
+        <v>5.810026462306013</v>
       </c>
       <c r="T18">
-        <v>1.491265817930228</v>
+        <v>3.0774098737013</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.137187536559376</v>
+        <v>1.138255489078459</v>
       </c>
       <c r="D19">
-        <v>0.7138292716954469</v>
+        <v>0.9501802050433337</v>
       </c>
       <c r="E19">
-        <v>1.403938210528316</v>
+        <v>1.075870391784044</v>
       </c>
       <c r="F19">
-        <v>0.9589854932001965</v>
+        <v>1.031156307382598</v>
       </c>
       <c r="G19">
-        <v>0.9710118979087965</v>
+        <v>1.048918389728349</v>
       </c>
       <c r="H19">
-        <v>1.868939195950409</v>
+        <v>1.121927668444944</v>
       </c>
       <c r="I19">
-        <v>1.868939195950409</v>
+        <v>1.121927668444944</v>
       </c>
       <c r="J19">
-        <v>6.137187536559376</v>
+        <v>1.138255489078459</v>
       </c>
       <c r="K19">
-        <v>6.137187536559376</v>
+        <v>1.138255489078459</v>
       </c>
       <c r="L19">
-        <v>0.9710118979087965</v>
+        <v>1.048918389728349</v>
       </c>
       <c r="M19">
-        <v>1.419975546929603</v>
+        <v>1.085423029086646</v>
       </c>
       <c r="N19">
-        <v>1.419975546929603</v>
+        <v>1.085423029086646</v>
       </c>
       <c r="O19">
-        <v>1.184593455184884</v>
+        <v>1.040342087738876</v>
       </c>
       <c r="P19">
-        <v>2.992379543472861</v>
+        <v>1.103033849083917</v>
       </c>
       <c r="Q19">
-        <v>2.992379543472861</v>
+        <v>1.103033849083917</v>
       </c>
       <c r="R19">
-        <v>3.778581541744489</v>
+        <v>1.111839259082553</v>
       </c>
       <c r="S19">
-        <v>3.778581541744489</v>
+        <v>1.111839259082553</v>
       </c>
       <c r="T19">
-        <v>2.00898193430709</v>
+        <v>1.061051408576954</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.129647210132086</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="D20">
-        <v>0.9551086858860941</v>
+        <v>0.9487485782157422</v>
       </c>
       <c r="E20">
-        <v>1.039934218879061</v>
+        <v>1.092875682579122</v>
       </c>
       <c r="F20">
-        <v>1.03714455895083</v>
+        <v>1.028720950819692</v>
       </c>
       <c r="G20">
-        <v>1.089231834236571</v>
+        <v>1.037489788170774</v>
       </c>
       <c r="H20">
-        <v>1.024851449846393</v>
+        <v>1.20659613688094</v>
       </c>
       <c r="I20">
-        <v>1.024851449846393</v>
+        <v>1.20659613688094</v>
       </c>
       <c r="J20">
-        <v>1.129647210132086</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="K20">
-        <v>1.129647210132086</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="L20">
-        <v>1.089231834236571</v>
+        <v>1.037489788170774</v>
       </c>
       <c r="M20">
-        <v>1.057041642041482</v>
+        <v>1.122042962525857</v>
       </c>
       <c r="N20">
-        <v>1.057041642041482</v>
+        <v>1.122042962525857</v>
       </c>
       <c r="O20">
-        <v>1.023063989989686</v>
+        <v>1.064278167755819</v>
       </c>
       <c r="P20">
-        <v>1.081243498071683</v>
+        <v>1.158179103206959</v>
       </c>
       <c r="Q20">
-        <v>1.081243498071683</v>
+        <v>1.158179103206959</v>
       </c>
       <c r="R20">
-        <v>1.093344426086784</v>
+        <v>1.17624717354751</v>
       </c>
       <c r="S20">
-        <v>1.093344426086784</v>
+        <v>1.17624717354751</v>
       </c>
       <c r="T20">
-        <v>1.045986326321839</v>
+        <v>1.090813753539239</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9862463819789583</v>
+        <v>1.184102069801898</v>
       </c>
       <c r="D21">
-        <v>0.9538604283962088</v>
+        <v>0.923166312366963</v>
       </c>
       <c r="E21">
-        <v>1.253375835565662</v>
+        <v>0.9480340125754586</v>
       </c>
       <c r="F21">
-        <v>1.027442230794068</v>
+        <v>1.05787796425297</v>
       </c>
       <c r="G21">
-        <v>0.9741665222393703</v>
+        <v>0.9587407428452084</v>
       </c>
       <c r="H21">
-        <v>1.25457928082467</v>
+        <v>1.623599917825078</v>
       </c>
       <c r="I21">
-        <v>1.25457928082467</v>
+        <v>1.623599917825078</v>
       </c>
       <c r="J21">
-        <v>0.9862463819789583</v>
+        <v>1.184102069801898</v>
       </c>
       <c r="K21">
-        <v>0.9862463819789583</v>
+        <v>1.184102069801898</v>
       </c>
       <c r="L21">
-        <v>0.9741665222393703</v>
+        <v>0.9587407428452084</v>
       </c>
       <c r="M21">
-        <v>1.11437290153202</v>
+        <v>1.291170330335143</v>
       </c>
       <c r="N21">
-        <v>1.11437290153202</v>
+        <v>1.291170330335143</v>
       </c>
       <c r="O21">
-        <v>1.060868743820083</v>
+        <v>1.16850232434575</v>
       </c>
       <c r="P21">
-        <v>1.071664061681</v>
+        <v>1.255480910157395</v>
       </c>
       <c r="Q21">
-        <v>1.071664061681</v>
+        <v>1.255480910157395</v>
       </c>
       <c r="R21">
-        <v>1.050309641755489</v>
+        <v>1.237636200068521</v>
       </c>
       <c r="S21">
-        <v>1.050309641755489</v>
+        <v>1.237636200068521</v>
       </c>
       <c r="T21">
-        <v>1.074945113299823</v>
+        <v>1.115920169944596</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.117771084540937</v>
+        <v>1.806087314186836</v>
       </c>
       <c r="D22">
-        <v>0.6929678729736506</v>
+        <v>0.9340881945024022</v>
       </c>
       <c r="E22">
-        <v>0.4534650291766862</v>
+        <v>0.6487610034163217</v>
       </c>
       <c r="F22">
-        <v>0.9120937629321865</v>
+        <v>0.943368655669459</v>
       </c>
       <c r="G22">
-        <v>0.8750763187241302</v>
+        <v>0.7854421696340089</v>
       </c>
       <c r="H22">
-        <v>2.158029257426955</v>
+        <v>1.734882559392015</v>
       </c>
       <c r="I22">
-        <v>2.158029257426955</v>
+        <v>1.734882559392015</v>
       </c>
       <c r="J22">
-        <v>1.117771084540937</v>
+        <v>1.806087314186836</v>
       </c>
       <c r="K22">
-        <v>1.117771084540937</v>
+        <v>1.806087314186836</v>
       </c>
       <c r="L22">
-        <v>0.8750763187241302</v>
+        <v>0.7854421696340089</v>
       </c>
       <c r="M22">
-        <v>1.516552788075543</v>
+        <v>1.260162364513012</v>
       </c>
       <c r="N22">
-        <v>1.516552788075543</v>
+        <v>1.260162364513012</v>
       </c>
       <c r="O22">
-        <v>1.242024483041579</v>
+        <v>1.151470974509476</v>
       </c>
       <c r="P22">
-        <v>1.383625553564007</v>
+        <v>1.44213734773762</v>
       </c>
       <c r="Q22">
-        <v>1.383625553564007</v>
+        <v>1.44213734773762</v>
       </c>
       <c r="R22">
-        <v>1.31716193630824</v>
+        <v>1.533124839349924</v>
       </c>
       <c r="S22">
-        <v>1.31716193630824</v>
+        <v>1.533124839349924</v>
       </c>
       <c r="T22">
-        <v>1.034900554295757</v>
+        <v>1.142104982800174</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>2.661343158584538</v>
+      </c>
+      <c r="D23">
+        <v>0.8256498028851025</v>
+      </c>
+      <c r="E23">
+        <v>1.045622785961996</v>
+      </c>
+      <c r="F23">
+        <v>0.8716980875580387</v>
+      </c>
+      <c r="G23">
+        <v>1.080867209023134</v>
+      </c>
+      <c r="H23">
+        <v>3.202567282303995</v>
+      </c>
+      <c r="I23">
+        <v>3.202567282303995</v>
+      </c>
+      <c r="J23">
+        <v>2.661343158584538</v>
+      </c>
+      <c r="K23">
+        <v>2.661343158584538</v>
+      </c>
+      <c r="L23">
+        <v>1.080867209023134</v>
+      </c>
+      <c r="M23">
+        <v>2.141717245663564</v>
+      </c>
+      <c r="N23">
+        <v>2.141717245663564</v>
+      </c>
+      <c r="O23">
+        <v>1.703028098070744</v>
+      </c>
+      <c r="P23">
+        <v>2.314925883303889</v>
+      </c>
+      <c r="Q23">
+        <v>2.314925883303889</v>
+      </c>
+      <c r="R23">
+        <v>2.401530202124051</v>
+      </c>
+      <c r="S23">
+        <v>2.401530202124051</v>
+      </c>
+      <c r="T23">
+        <v>1.614624721052801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="D24">
+        <v>0.2984651631758272</v>
+      </c>
+      <c r="E24">
+        <v>-0.002882229086911449</v>
+      </c>
+      <c r="F24">
+        <v>1.19716049132486</v>
+      </c>
+      <c r="G24">
+        <v>0.5690785811988043</v>
+      </c>
+      <c r="H24">
+        <v>0.004554680423049943</v>
+      </c>
+      <c r="I24">
+        <v>0.004554680423049943</v>
+      </c>
+      <c r="J24">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="K24">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="L24">
+        <v>0.5690785811988043</v>
+      </c>
+      <c r="M24">
+        <v>0.2868166308109271</v>
+      </c>
+      <c r="N24">
+        <v>0.2868166308109271</v>
+      </c>
+      <c r="O24">
+        <v>0.2906994749325605</v>
+      </c>
+      <c r="P24">
+        <v>0.1910970304300391</v>
+      </c>
+      <c r="Q24">
+        <v>0.1910970304300391</v>
+      </c>
+      <c r="R24">
+        <v>0.1432372302395951</v>
+      </c>
+      <c r="S24">
+        <v>0.1432372302395951</v>
+      </c>
+      <c r="T24">
+        <v>0.3443390861173155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="D25">
+        <v>1.399430878682554</v>
+      </c>
+      <c r="E25">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="F25">
+        <v>0.2773127339309403</v>
+      </c>
+      <c r="G25">
+        <v>-0.0002601929223607322</v>
+      </c>
+      <c r="H25">
+        <v>1.697035567127595</v>
+      </c>
+      <c r="I25">
+        <v>1.697035567127595</v>
+      </c>
+      <c r="J25">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="K25">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="L25">
+        <v>-0.0002601929223607322</v>
+      </c>
+      <c r="M25">
+        <v>0.848387687102617</v>
+      </c>
+      <c r="N25">
+        <v>0.848387687102617</v>
+      </c>
+      <c r="O25">
+        <v>1.032068750962596</v>
+      </c>
+      <c r="P25">
+        <v>1.881930485300888</v>
+      </c>
+      <c r="Q25">
+        <v>1.881930485300888</v>
+      </c>
+      <c r="R25">
+        <v>2.398701884400023</v>
+      </c>
+      <c r="S25">
+        <v>2.398701884400023</v>
+      </c>
+      <c r="T25">
+        <v>2.184557915664501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>-0.0003899418825473299</v>
+      </c>
+      <c r="D26">
+        <v>1.939450867039165</v>
+      </c>
+      <c r="E26">
+        <v>0.0006168176677112139</v>
+      </c>
+      <c r="F26">
+        <v>-0.0004015883134759693</v>
+      </c>
+      <c r="G26">
+        <v>-0.0005623933642230922</v>
+      </c>
+      <c r="H26">
+        <v>11.3253112082399</v>
+      </c>
+      <c r="I26">
+        <v>11.3253112082399</v>
+      </c>
+      <c r="J26">
+        <v>-0.0003899418825473299</v>
+      </c>
+      <c r="K26">
+        <v>-0.0003899418825473299</v>
+      </c>
+      <c r="L26">
+        <v>-0.0005623933642230922</v>
+      </c>
+      <c r="M26">
+        <v>5.662374407437837</v>
+      </c>
+      <c r="N26">
+        <v>5.662374407437837</v>
+      </c>
+      <c r="O26">
+        <v>4.421399893971613</v>
+      </c>
+      <c r="P26">
+        <v>3.774786290997709</v>
+      </c>
+      <c r="Q26">
+        <v>3.774786290997709</v>
+      </c>
+      <c r="R26">
+        <v>2.830992232777645</v>
+      </c>
+      <c r="S26">
+        <v>2.830992232777645</v>
+      </c>
+      <c r="T26">
+        <v>2.210670828231088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.03481782273777063</v>
+      </c>
+      <c r="D27">
+        <v>1.5791847424298</v>
+      </c>
+      <c r="E27">
+        <v>-0.0009909289670925157</v>
+      </c>
+      <c r="F27">
+        <v>1.178403091363843</v>
+      </c>
+      <c r="G27">
+        <v>1.60972298834738</v>
+      </c>
+      <c r="H27">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="I27">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="J27">
+        <v>0.03481782273777063</v>
+      </c>
+      <c r="K27">
+        <v>0.03481782273777063</v>
+      </c>
+      <c r="L27">
+        <v>1.60972298834738</v>
+      </c>
+      <c r="M27">
+        <v>0.8035138296675229</v>
+      </c>
+      <c r="N27">
+        <v>0.8035138296675229</v>
+      </c>
+      <c r="O27">
+        <v>1.062070800588282</v>
+      </c>
+      <c r="P27">
+        <v>0.5472818273576056</v>
+      </c>
+      <c r="Q27">
+        <v>0.5472818273576056</v>
+      </c>
+      <c r="R27">
+        <v>0.4191658262026468</v>
+      </c>
+      <c r="S27">
+        <v>0.4191658262026468</v>
+      </c>
+      <c r="T27">
+        <v>0.7330737311498945</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>3.980544117171519</v>
+      </c>
+      <c r="D28">
+        <v>0.2067126109289304</v>
+      </c>
+      <c r="E28">
+        <v>8.742234599680671</v>
+      </c>
+      <c r="F28">
+        <v>0.2365406741835516</v>
+      </c>
+      <c r="G28">
+        <v>3.066306711732128</v>
+      </c>
+      <c r="H28">
+        <v>5.927407999352345</v>
+      </c>
+      <c r="I28">
+        <v>5.927407999352345</v>
+      </c>
+      <c r="J28">
+        <v>3.980544117171519</v>
+      </c>
+      <c r="K28">
+        <v>3.980544117171519</v>
+      </c>
+      <c r="L28">
+        <v>3.066306711732128</v>
+      </c>
+      <c r="M28">
+        <v>4.496857355542237</v>
+      </c>
+      <c r="N28">
+        <v>4.496857355542237</v>
+      </c>
+      <c r="O28">
+        <v>3.066809107337801</v>
+      </c>
+      <c r="P28">
+        <v>4.324752942751998</v>
+      </c>
+      <c r="Q28">
+        <v>4.324752942751998</v>
+      </c>
+      <c r="R28">
+        <v>4.238700736356877</v>
+      </c>
+      <c r="S28">
+        <v>4.238700736356877</v>
+      </c>
+      <c r="T28">
+        <v>3.693291118841524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>4.241320840595076</v>
+      </c>
+      <c r="D29">
+        <v>0.4111762143476667</v>
+      </c>
+      <c r="E29">
+        <v>6.151589688688708</v>
+      </c>
+      <c r="F29">
+        <v>0.4799964118749091</v>
+      </c>
+      <c r="G29">
+        <v>2.355727160999691</v>
+      </c>
+      <c r="H29">
+        <v>4.326412262176837</v>
+      </c>
+      <c r="I29">
+        <v>4.326412262176837</v>
+      </c>
+      <c r="J29">
+        <v>4.241320840595076</v>
+      </c>
+      <c r="K29">
+        <v>4.241320840595076</v>
+      </c>
+      <c r="L29">
+        <v>2.355727160999691</v>
+      </c>
+      <c r="M29">
+        <v>3.341069711588264</v>
+      </c>
+      <c r="N29">
+        <v>3.341069711588264</v>
+      </c>
+      <c r="O29">
+        <v>2.364438545841398</v>
+      </c>
+      <c r="P29">
+        <v>3.641153421257201</v>
+      </c>
+      <c r="Q29">
+        <v>3.641153421257202</v>
+      </c>
+      <c r="R29">
+        <v>3.791195276091671</v>
+      </c>
+      <c r="S29">
+        <v>3.791195276091671</v>
+      </c>
+      <c r="T29">
+        <v>2.994370429780481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>4.399178354956702</v>
+      </c>
+      <c r="D30">
+        <v>0.720359796447228</v>
+      </c>
+      <c r="E30">
+        <v>0.7495411352952546</v>
+      </c>
+      <c r="F30">
+        <v>0.6549214206440748</v>
+      </c>
+      <c r="G30">
+        <v>0.7235617124877119</v>
+      </c>
+      <c r="H30">
+        <v>1.700032487750397</v>
+      </c>
+      <c r="I30">
+        <v>1.700032487750397</v>
+      </c>
+      <c r="J30">
+        <v>4.399178354956702</v>
+      </c>
+      <c r="K30">
+        <v>4.399178354956702</v>
+      </c>
+      <c r="L30">
+        <v>0.7235617124877119</v>
+      </c>
+      <c r="M30">
+        <v>1.211797100119055</v>
+      </c>
+      <c r="N30">
+        <v>1.211797100119055</v>
+      </c>
+      <c r="O30">
+        <v>1.047984665561779</v>
+      </c>
+      <c r="P30">
+        <v>2.274257518398271</v>
+      </c>
+      <c r="Q30">
+        <v>2.274257518398271</v>
+      </c>
+      <c r="R30">
+        <v>2.805487727537878</v>
+      </c>
+      <c r="S30">
+        <v>2.805487727537878</v>
+      </c>
+      <c r="T30">
+        <v>1.491265817930228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>6.137187536559376</v>
+      </c>
+      <c r="D31">
+        <v>0.7138292716954469</v>
+      </c>
+      <c r="E31">
+        <v>1.403938210528316</v>
+      </c>
+      <c r="F31">
+        <v>0.9589854932001965</v>
+      </c>
+      <c r="G31">
+        <v>0.9710118979087965</v>
+      </c>
+      <c r="H31">
+        <v>1.868939195950409</v>
+      </c>
+      <c r="I31">
+        <v>1.868939195950409</v>
+      </c>
+      <c r="J31">
+        <v>6.137187536559376</v>
+      </c>
+      <c r="K31">
+        <v>6.137187536559376</v>
+      </c>
+      <c r="L31">
+        <v>0.9710118979087965</v>
+      </c>
+      <c r="M31">
+        <v>1.419975546929603</v>
+      </c>
+      <c r="N31">
+        <v>1.419975546929603</v>
+      </c>
+      <c r="O31">
+        <v>1.184593455184884</v>
+      </c>
+      <c r="P31">
+        <v>2.992379543472861</v>
+      </c>
+      <c r="Q31">
+        <v>2.992379543472861</v>
+      </c>
+      <c r="R31">
+        <v>3.778581541744489</v>
+      </c>
+      <c r="S31">
+        <v>3.778581541744489</v>
+      </c>
+      <c r="T31">
+        <v>2.00898193430709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>3.734662364762876</v>
+      </c>
+      <c r="D32">
+        <v>0.001615994842739727</v>
+      </c>
+      <c r="E32">
+        <v>11.17508419080274</v>
+      </c>
+      <c r="F32">
+        <v>-0.007234044796164386</v>
+      </c>
+      <c r="G32">
+        <v>3.723875504056985</v>
+      </c>
+      <c r="H32">
+        <v>10.78818887902</v>
+      </c>
+      <c r="I32">
+        <v>10.78818887902</v>
+      </c>
+      <c r="J32">
+        <v>3.734662364762876</v>
+      </c>
+      <c r="K32">
+        <v>3.734662364762876</v>
+      </c>
+      <c r="L32">
+        <v>3.723875504056985</v>
+      </c>
+      <c r="M32">
+        <v>7.256032191538493</v>
+      </c>
+      <c r="N32">
+        <v>7.256032191538493</v>
+      </c>
+      <c r="O32">
+        <v>4.837893459306575</v>
+      </c>
+      <c r="P32">
+        <v>6.082242249279954</v>
+      </c>
+      <c r="Q32">
+        <v>6.082242249279954</v>
+      </c>
+      <c r="R32">
+        <v>5.495347278150684</v>
+      </c>
+      <c r="S32">
+        <v>5.495347278150684</v>
+      </c>
+      <c r="T32">
+        <v>4.90269881478153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="D33">
+        <v>6.650801036336841</v>
+      </c>
+      <c r="E33">
+        <v>0.007608171926315788</v>
+      </c>
+      <c r="F33">
+        <v>6.060929405263196E-05</v>
+      </c>
+      <c r="G33">
+        <v>0.00457095178</v>
+      </c>
+      <c r="H33">
+        <v>14.35741520336105</v>
+      </c>
+      <c r="I33">
+        <v>14.35741520336105</v>
+      </c>
+      <c r="J33">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="K33">
+        <v>13.55032498050159</v>
+      </c>
+      <c r="L33">
+        <v>0.00457095178</v>
+      </c>
+      <c r="M33">
+        <v>7.180993077570526</v>
+      </c>
+      <c r="N33">
+        <v>7.180993077570526</v>
+      </c>
+      <c r="O33">
+        <v>7.004262397159297</v>
+      </c>
+      <c r="P33">
+        <v>9.304103711880879</v>
+      </c>
+      <c r="Q33">
+        <v>9.304103711880879</v>
+      </c>
+      <c r="R33">
+        <v>10.36565902903606</v>
+      </c>
+      <c r="S33">
+        <v>10.36565902903606</v>
+      </c>
+      <c r="T33">
+        <v>5.761796825533309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>6.775185284685795</v>
+      </c>
+      <c r="D34">
+        <v>0.001342648583157895</v>
+      </c>
+      <c r="E34">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="F34">
+        <v>-0.007005507619473684</v>
+      </c>
+      <c r="G34">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="H34">
+        <v>13.55024100243842</v>
+      </c>
+      <c r="I34">
+        <v>13.55024100243842</v>
+      </c>
+      <c r="J34">
+        <v>6.775185284685795</v>
+      </c>
+      <c r="K34">
+        <v>6.775185284685795</v>
+      </c>
+      <c r="L34">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="M34">
+        <v>8.563393214217895</v>
+      </c>
+      <c r="N34">
+        <v>8.563393214217895</v>
+      </c>
+      <c r="O34">
+        <v>5.709376359006316</v>
+      </c>
+      <c r="P34">
+        <v>7.967323904373861</v>
+      </c>
+      <c r="Q34">
+        <v>7.967323904373862</v>
+      </c>
+      <c r="R34">
+        <v>7.669289249451845</v>
+      </c>
+      <c r="S34">
+        <v>7.669289249451845</v>
+      </c>
+      <c r="T34">
+        <v>5.771783101728246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>62.75842379450049</v>
+      </c>
+      <c r="D35">
+        <v>0.4469581738379</v>
+      </c>
+      <c r="E35">
+        <v>0.6602454914644297</v>
+      </c>
+      <c r="F35">
+        <v>0.5234042187246915</v>
+      </c>
+      <c r="G35">
+        <v>0.4435040455173282</v>
+      </c>
+      <c r="H35">
+        <v>0.4532072119093449</v>
+      </c>
+      <c r="I35">
+        <v>0.4532072119093449</v>
+      </c>
+      <c r="J35">
+        <v>62.75842379450049</v>
+      </c>
+      <c r="K35">
+        <v>62.75842379450049</v>
+      </c>
+      <c r="L35">
+        <v>0.4435040455173282</v>
+      </c>
+      <c r="M35">
+        <v>0.4483556287133366</v>
+      </c>
+      <c r="N35">
+        <v>0.4483556287133366</v>
+      </c>
+      <c r="O35">
+        <v>0.4478898104215244</v>
+      </c>
+      <c r="P35">
+        <v>21.21837835064239</v>
+      </c>
+      <c r="Q35">
+        <v>21.21837835064239</v>
+      </c>
+      <c r="R35">
+        <v>31.60338971160691</v>
+      </c>
+      <c r="S35">
+        <v>31.60338971160691</v>
+      </c>
+      <c r="T35">
+        <v>10.88095715599236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.129647210132086</v>
+      </c>
+      <c r="D36">
+        <v>0.9551086858860941</v>
+      </c>
+      <c r="E36">
+        <v>1.039934218879061</v>
+      </c>
+      <c r="F36">
+        <v>1.03714455895083</v>
+      </c>
+      <c r="G36">
+        <v>1.089231834236571</v>
+      </c>
+      <c r="H36">
+        <v>1.024851449846393</v>
+      </c>
+      <c r="I36">
+        <v>1.024851449846393</v>
+      </c>
+      <c r="J36">
+        <v>1.129647210132086</v>
+      </c>
+      <c r="K36">
+        <v>1.129647210132086</v>
+      </c>
+      <c r="L36">
+        <v>1.089231834236571</v>
+      </c>
+      <c r="M36">
+        <v>1.057041642041482</v>
+      </c>
+      <c r="N36">
+        <v>1.057041642041482</v>
+      </c>
+      <c r="O36">
+        <v>1.023063989989686</v>
+      </c>
+      <c r="P36">
+        <v>1.081243498071683</v>
+      </c>
+      <c r="Q36">
+        <v>1.081243498071683</v>
+      </c>
+      <c r="R36">
+        <v>1.093344426086784</v>
+      </c>
+      <c r="S36">
+        <v>1.093344426086784</v>
+      </c>
+      <c r="T36">
+        <v>1.045986326321839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9862463819789583</v>
+      </c>
+      <c r="D37">
+        <v>0.9538604283962088</v>
+      </c>
+      <c r="E37">
+        <v>1.253375835565662</v>
+      </c>
+      <c r="F37">
+        <v>1.027442230794068</v>
+      </c>
+      <c r="G37">
+        <v>0.9741665222393703</v>
+      </c>
+      <c r="H37">
+        <v>1.25457928082467</v>
+      </c>
+      <c r="I37">
+        <v>1.25457928082467</v>
+      </c>
+      <c r="J37">
+        <v>0.9862463819789583</v>
+      </c>
+      <c r="K37">
+        <v>0.9862463819789583</v>
+      </c>
+      <c r="L37">
+        <v>0.9741665222393703</v>
+      </c>
+      <c r="M37">
+        <v>1.11437290153202</v>
+      </c>
+      <c r="N37">
+        <v>1.11437290153202</v>
+      </c>
+      <c r="O37">
+        <v>1.060868743820083</v>
+      </c>
+      <c r="P37">
+        <v>1.071664061681</v>
+      </c>
+      <c r="Q37">
+        <v>1.071664061681</v>
+      </c>
+      <c r="R37">
+        <v>1.050309641755489</v>
+      </c>
+      <c r="S37">
+        <v>1.050309641755489</v>
+      </c>
+      <c r="T37">
+        <v>1.074945113299823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.117771084540937</v>
+      </c>
+      <c r="D38">
+        <v>0.6929678729736506</v>
+      </c>
+      <c r="E38">
+        <v>0.4534650291766862</v>
+      </c>
+      <c r="F38">
+        <v>0.9120937629321865</v>
+      </c>
+      <c r="G38">
+        <v>0.8750763187241302</v>
+      </c>
+      <c r="H38">
+        <v>2.158029257426955</v>
+      </c>
+      <c r="I38">
+        <v>2.158029257426955</v>
+      </c>
+      <c r="J38">
+        <v>1.117771084540937</v>
+      </c>
+      <c r="K38">
+        <v>1.117771084540937</v>
+      </c>
+      <c r="L38">
+        <v>0.8750763187241302</v>
+      </c>
+      <c r="M38">
+        <v>1.516552788075543</v>
+      </c>
+      <c r="N38">
+        <v>1.516552788075543</v>
+      </c>
+      <c r="O38">
+        <v>1.242024483041579</v>
+      </c>
+      <c r="P38">
+        <v>1.383625553564007</v>
+      </c>
+      <c r="Q38">
+        <v>1.383625553564007</v>
+      </c>
+      <c r="R38">
+        <v>1.31716193630824</v>
+      </c>
+      <c r="S38">
+        <v>1.31716193630824</v>
+      </c>
+      <c r="T38">
+        <v>1.034900554295757</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.591390138497335</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.398557080739225</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.3881501515463838</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9610114637170888</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.524042502800106</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.163138098782353</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.163138098782353</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.591390138497335</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.591390138497335</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.524042502800106</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.3435903007912295</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.3435903007912295</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.6952458941072278</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.759523580026598</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.759523580026598</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9674902196442823</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9674902196442823</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.8377149060137485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>2.378768599492833</v>
+      </c>
+      <c r="D40">
+        <v>0.8935232533570781</v>
+      </c>
+      <c r="E40">
+        <v>1.009639616000214</v>
+      </c>
+      <c r="F40">
+        <v>0.958683181437361</v>
+      </c>
+      <c r="G40">
+        <v>0.9149610484736869</v>
+      </c>
+      <c r="H40">
+        <v>1.012508668901216</v>
+      </c>
+      <c r="I40">
+        <v>1.012508668901216</v>
+      </c>
+      <c r="J40">
+        <v>2.378768599492833</v>
+      </c>
+      <c r="K40">
+        <v>2.378768599492833</v>
+      </c>
+      <c r="L40">
+        <v>0.9149610484736869</v>
+      </c>
+      <c r="M40">
+        <v>0.9637348586874512</v>
+      </c>
+      <c r="N40">
+        <v>0.9637348586874512</v>
+      </c>
+      <c r="O40">
+        <v>0.9403309902439935</v>
+      </c>
+      <c r="P40">
+        <v>1.435412772289245</v>
+      </c>
+      <c r="Q40">
+        <v>1.435412772289245</v>
+      </c>
+      <c r="R40">
+        <v>1.671251729090142</v>
+      </c>
+      <c r="S40">
+        <v>1.671251729090142</v>
+      </c>
+      <c r="T40">
+        <v>1.194680727943731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.101536519739096</v>
+      </c>
+      <c r="D41">
+        <v>0.6130405205003319</v>
+      </c>
+      <c r="E41">
+        <v>1.71518024956201</v>
+      </c>
+      <c r="F41">
+        <v>1.213783617841363</v>
+      </c>
+      <c r="G41">
+        <v>1.201567450959985</v>
+      </c>
+      <c r="H41">
+        <v>0.5354042508374363</v>
+      </c>
+      <c r="I41">
+        <v>0.5354042508374363</v>
+      </c>
+      <c r="J41">
+        <v>1.101536519739096</v>
+      </c>
+      <c r="K41">
+        <v>1.101536519739096</v>
+      </c>
+      <c r="L41">
+        <v>1.201567450959985</v>
+      </c>
+      <c r="M41">
+        <v>0.8684858508987106</v>
+      </c>
+      <c r="N41">
+        <v>0.8684858508987106</v>
+      </c>
+      <c r="O41">
+        <v>0.7833374074325844</v>
+      </c>
+      <c r="P41">
+        <v>0.946169407178839</v>
+      </c>
+      <c r="Q41">
+        <v>0.946169407178839</v>
+      </c>
+      <c r="R41">
+        <v>0.9850111853189032</v>
+      </c>
+      <c r="S41">
+        <v>0.9850111853189032</v>
+      </c>
+      <c r="T41">
+        <v>1.063418768240037</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>2.164551619299541</v>
+      </c>
+      <c r="D42">
+        <v>0.5578410517116257</v>
+      </c>
+      <c r="E42">
+        <v>1.790187688218549</v>
+      </c>
+      <c r="F42">
+        <v>1.040926899726672</v>
+      </c>
+      <c r="G42">
+        <v>0.9804379942192066</v>
+      </c>
+      <c r="H42">
+        <v>0.6553062115422673</v>
+      </c>
+      <c r="I42">
+        <v>0.6553062115422673</v>
+      </c>
+      <c r="J42">
+        <v>2.164551619299541</v>
+      </c>
+      <c r="K42">
+        <v>2.164551619299541</v>
+      </c>
+      <c r="L42">
+        <v>0.9804379942192066</v>
+      </c>
+      <c r="M42">
+        <v>0.817872102880737</v>
+      </c>
+      <c r="N42">
+        <v>0.817872102880737</v>
+      </c>
+      <c r="O42">
+        <v>0.7311950858243664</v>
+      </c>
+      <c r="P42">
+        <v>1.266765275020338</v>
+      </c>
+      <c r="Q42">
+        <v>1.266765275020338</v>
+      </c>
+      <c r="R42">
+        <v>1.491211861090139</v>
+      </c>
+      <c r="S42">
+        <v>1.491211861090139</v>
+      </c>
+      <c r="T42">
+        <v>1.198208577452977</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.345159600979164</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="D3">
-        <v>1.430420888209043</v>
+        <v>0.9487485782157422</v>
       </c>
       <c r="E3">
-        <v>1.156904908299804</v>
+        <v>1.092875682579122</v>
       </c>
       <c r="F3">
-        <v>1.345159600979164</v>
+        <v>1.028720950819692</v>
       </c>
       <c r="G3">
-        <v>1.569254074824068</v>
+        <v>1.037489788170774</v>
       </c>
       <c r="H3">
-        <v>0.9146373514973863</v>
+        <v>1.20659613688094</v>
       </c>
       <c r="I3">
-        <v>0.9662066938889495</v>
+        <v>1.20659613688094</v>
       </c>
       <c r="J3">
-        <v>1.430420888209043</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="K3">
-        <v>1.345159600979164</v>
+        <v>1.230451384569163</v>
       </c>
       <c r="L3">
-        <v>1.156904908299804</v>
+        <v>1.037489788170774</v>
       </c>
       <c r="M3">
-        <v>1.293662898254424</v>
+        <v>1.122042962525857</v>
       </c>
       <c r="N3">
-        <v>1.293662898254424</v>
+        <v>1.122042962525857</v>
       </c>
       <c r="O3">
-        <v>1.167321049335411</v>
+        <v>1.064278167755819</v>
       </c>
       <c r="P3">
-        <v>1.310828465829337</v>
+        <v>1.158179103206959</v>
       </c>
       <c r="Q3">
-        <v>1.310828465829337</v>
+        <v>1.158179103206959</v>
       </c>
       <c r="R3">
-        <v>1.319411249616794</v>
+        <v>1.17624717354751</v>
       </c>
       <c r="S3">
-        <v>1.319411249616794</v>
+        <v>1.17624717354751</v>
       </c>
       <c r="T3">
-        <v>1.230430586283069</v>
+        <v>1.090813753539239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.334292287912513</v>
+        <v>2.378768599492833</v>
       </c>
       <c r="D4">
-        <v>1.737050942784302</v>
+        <v>0.8935232533570781</v>
       </c>
       <c r="E4">
-        <v>1.312414567097076</v>
+        <v>1.009639616000214</v>
       </c>
       <c r="F4">
-        <v>1.334292287912513</v>
+        <v>0.958683181437361</v>
       </c>
       <c r="G4">
-        <v>2.502563244388664</v>
+        <v>0.9149610484736869</v>
       </c>
       <c r="H4">
-        <v>0.8172320540202065</v>
+        <v>1.012508668901216</v>
       </c>
       <c r="I4">
-        <v>1.137814685895308</v>
+        <v>1.012508668901216</v>
       </c>
       <c r="J4">
-        <v>1.737050942784302</v>
+        <v>2.378768599492833</v>
       </c>
       <c r="K4">
-        <v>1.334292287912513</v>
+        <v>2.378768599492833</v>
       </c>
       <c r="L4">
-        <v>1.312414567097076</v>
+        <v>0.9149610484736869</v>
       </c>
       <c r="M4">
-        <v>1.524732754940689</v>
+        <v>0.9637348586874512</v>
       </c>
       <c r="N4">
-        <v>1.524732754940689</v>
+        <v>0.9637348586874512</v>
       </c>
       <c r="O4">
-        <v>1.288899187967195</v>
+        <v>0.9403309902439935</v>
       </c>
       <c r="P4">
-        <v>1.46125259926463</v>
+        <v>1.435412772289245</v>
       </c>
       <c r="Q4">
-        <v>1.46125259926463</v>
+        <v>1.435412772289245</v>
       </c>
       <c r="R4">
-        <v>1.429512521426601</v>
+        <v>1.671251729090142</v>
       </c>
       <c r="S4">
-        <v>1.429512521426601</v>
+        <v>1.671251729090142</v>
       </c>
       <c r="T4">
-        <v>1.473561297016345</v>
+        <v>1.194680727943731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.980036563290933</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="D5">
-        <v>3.825208956509219</v>
+        <v>0.771308351057659</v>
       </c>
       <c r="E5">
-        <v>1.535580148296976</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="F5">
-        <v>2.980036563290933</v>
+        <v>0.9090625261027812</v>
       </c>
       <c r="G5">
-        <v>0.9767920905391435</v>
+        <v>1.01307189253619</v>
       </c>
       <c r="H5">
-        <v>0.8982227354972873</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="I5">
-        <v>0.9434244496414078</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="J5">
-        <v>3.825208956509219</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="K5">
-        <v>2.980036563290933</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="L5">
-        <v>1.535580148296976</v>
+        <v>1.01307189253619</v>
       </c>
       <c r="M5">
-        <v>2.680394552403097</v>
+        <v>1.104472911263751</v>
       </c>
       <c r="N5">
-        <v>2.680394552403097</v>
+        <v>1.104472911263751</v>
       </c>
       <c r="O5">
-        <v>2.086337280101161</v>
+        <v>0.99341805786172</v>
       </c>
       <c r="P5">
-        <v>2.780275222699042</v>
+        <v>3.255716276548684</v>
       </c>
       <c r="Q5">
-        <v>2.780275222699042</v>
+        <v>3.255716276548684</v>
       </c>
       <c r="R5">
-        <v>2.830215557847015</v>
+        <v>4.331337959191149</v>
       </c>
       <c r="S5">
-        <v>2.830215557847015</v>
+        <v>4.331337959191149</v>
       </c>
       <c r="T5">
-        <v>1.859877490629161</v>
+        <v>2.127219454277723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.245326203686531</v>
+        <v>62.75842379450049</v>
       </c>
       <c r="D6">
-        <v>10.54317485541254</v>
+        <v>0.4469581738379</v>
       </c>
       <c r="E6">
-        <v>0.2062785864384515</v>
+        <v>0.6602454914644297</v>
       </c>
       <c r="F6">
-        <v>6.245326203686531</v>
+        <v>0.5234042187246915</v>
       </c>
       <c r="G6">
-        <v>0.916230768269628</v>
+        <v>0.4435040455173282</v>
       </c>
       <c r="H6">
-        <v>0.1250686998274139</v>
+        <v>0.4532072119093449</v>
       </c>
       <c r="I6">
-        <v>0.4283801285732389</v>
+        <v>0.4532072119093449</v>
       </c>
       <c r="J6">
-        <v>10.54317485541254</v>
+        <v>62.75842379450049</v>
       </c>
       <c r="K6">
-        <v>6.245326203686531</v>
+        <v>62.75842379450049</v>
       </c>
       <c r="L6">
-        <v>0.2062785864384515</v>
+        <v>0.4435040455173282</v>
       </c>
       <c r="M6">
-        <v>5.374726720925494</v>
+        <v>0.4483556287133366</v>
       </c>
       <c r="N6">
-        <v>5.374726720925494</v>
+        <v>0.4483556287133366</v>
       </c>
       <c r="O6">
-        <v>3.624840713892801</v>
+        <v>0.4478898104215244</v>
       </c>
       <c r="P6">
-        <v>5.664926548512507</v>
+        <v>21.21837835064239</v>
       </c>
       <c r="Q6">
-        <v>5.664926548512507</v>
+        <v>21.21837835064239</v>
       </c>
       <c r="R6">
-        <v>5.810026462306013</v>
+        <v>31.60338971160691</v>
       </c>
       <c r="S6">
-        <v>5.810026462306013</v>
+        <v>31.60338971160691</v>
       </c>
       <c r="T6">
-        <v>3.0774098737013</v>
+        <v>10.88095715599236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.138255489078458</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="D7">
-        <v>1.121927668444941</v>
+        <v>0.9061941590403847</v>
       </c>
       <c r="E7">
-        <v>1.048918389728348</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="F7">
-        <v>1.138255489078458</v>
+        <v>0.9776251728065969</v>
       </c>
       <c r="G7">
-        <v>1.075870391784044</v>
+        <v>1.154589893974013</v>
       </c>
       <c r="H7">
-        <v>0.9501802050433326</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="I7">
-        <v>1.031156307382598</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="J7">
-        <v>1.121927668444941</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="K7">
-        <v>1.138255489078458</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="L7">
-        <v>1.048918389728348</v>
+        <v>1.154589893974013</v>
       </c>
       <c r="M7">
-        <v>1.085423029086644</v>
+        <v>1.23638205005522</v>
       </c>
       <c r="N7">
-        <v>1.085423029086644</v>
+        <v>1.23638205005522</v>
       </c>
       <c r="O7">
-        <v>1.040342087738874</v>
+        <v>1.126319419716942</v>
       </c>
       <c r="P7">
-        <v>1.103033849083916</v>
+        <v>1.245469834458911</v>
       </c>
       <c r="Q7">
-        <v>1.103033849083916</v>
+        <v>1.245469834458911</v>
       </c>
       <c r="R7">
-        <v>1.111839259082551</v>
+        <v>1.250013726660757</v>
       </c>
       <c r="S7">
-        <v>1.111839259082551</v>
+        <v>1.250013726660757</v>
       </c>
       <c r="T7">
-        <v>1.061051408576954</v>
+        <v>1.226103846461179</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.230451384569142</v>
+        <v>0.9862463819789583</v>
       </c>
       <c r="D8">
-        <v>1.20659613688094</v>
+        <v>0.9538604283962088</v>
       </c>
       <c r="E8">
-        <v>1.037489788170774</v>
+        <v>1.253375835565662</v>
       </c>
       <c r="F8">
-        <v>1.230451384569142</v>
+        <v>1.027442230794068</v>
       </c>
       <c r="G8">
-        <v>1.092875682579118</v>
+        <v>0.9741665222393703</v>
       </c>
       <c r="H8">
-        <v>0.9487485782157411</v>
+        <v>1.25457928082467</v>
       </c>
       <c r="I8">
-        <v>1.02872095081969</v>
+        <v>1.25457928082467</v>
       </c>
       <c r="J8">
-        <v>1.20659613688094</v>
+        <v>0.9862463819789583</v>
       </c>
       <c r="K8">
-        <v>1.230451384569142</v>
+        <v>0.9862463819789583</v>
       </c>
       <c r="L8">
-        <v>1.037489788170774</v>
+        <v>0.9741665222393703</v>
       </c>
       <c r="M8">
-        <v>1.122042962525857</v>
+        <v>1.11437290153202</v>
       </c>
       <c r="N8">
-        <v>1.122042962525857</v>
+        <v>1.11437290153202</v>
       </c>
       <c r="O8">
-        <v>1.064278167755818</v>
+        <v>1.060868743820083</v>
       </c>
       <c r="P8">
-        <v>1.158179103206952</v>
+        <v>1.071664061681</v>
       </c>
       <c r="Q8">
-        <v>1.158179103206952</v>
+        <v>1.071664061681</v>
       </c>
       <c r="R8">
-        <v>1.1762471735475</v>
+        <v>1.050309641755489</v>
       </c>
       <c r="S8">
-        <v>1.1762471735475</v>
+        <v>1.050309641755489</v>
       </c>
       <c r="T8">
-        <v>1.090813753539234</v>
+        <v>1.074945113299823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.184102069801898</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="D9">
-        <v>1.623599917825078</v>
+        <v>0.8172320540202065</v>
       </c>
       <c r="E9">
-        <v>0.9587407428452084</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="F9">
-        <v>1.184102069801898</v>
+        <v>1.137814685895308</v>
       </c>
       <c r="G9">
-        <v>0.9480340125754586</v>
+        <v>1.312414567097076</v>
       </c>
       <c r="H9">
-        <v>0.923166312366963</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="I9">
-        <v>1.05787796425297</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="J9">
-        <v>1.623599917825078</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="K9">
-        <v>1.184102069801898</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="L9">
-        <v>0.9587407428452084</v>
+        <v>1.312414567097076</v>
       </c>
       <c r="M9">
-        <v>1.291170330335143</v>
+        <v>1.524732754940689</v>
       </c>
       <c r="N9">
-        <v>1.291170330335143</v>
+        <v>1.524732754940689</v>
       </c>
       <c r="O9">
-        <v>1.16850232434575</v>
+        <v>1.288899187967195</v>
       </c>
       <c r="P9">
-        <v>1.255480910157395</v>
+        <v>1.46125259926463</v>
       </c>
       <c r="Q9">
-        <v>1.255480910157395</v>
+        <v>1.46125259926463</v>
       </c>
       <c r="R9">
-        <v>1.237636200068521</v>
+        <v>1.429512521426601</v>
       </c>
       <c r="S9">
-        <v>1.237636200068521</v>
+        <v>1.429512521426601</v>
       </c>
       <c r="T9">
-        <v>1.115920169944596</v>
+        <v>1.473561297016345</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.806087314186836</v>
+        <v>63.58480839175045</v>
       </c>
       <c r="D10">
-        <v>1.734882559392015</v>
+        <v>0.3808412757107916</v>
       </c>
       <c r="E10">
-        <v>0.7854421696340089</v>
+        <v>0.4501427105209644</v>
       </c>
       <c r="F10">
-        <v>1.806087314186836</v>
+        <v>0.4601196434125159</v>
       </c>
       <c r="G10">
-        <v>0.6487610034163217</v>
+        <v>0.4336647048615254</v>
       </c>
       <c r="H10">
-        <v>0.9340881945024022</v>
+        <v>0.4650904938513307</v>
       </c>
       <c r="I10">
-        <v>0.943368655669459</v>
+        <v>0.4650904938513307</v>
       </c>
       <c r="J10">
-        <v>1.734882559392015</v>
+        <v>63.58480839175045</v>
       </c>
       <c r="K10">
-        <v>1.806087314186836</v>
+        <v>63.58480839175045</v>
       </c>
       <c r="L10">
-        <v>0.7854421696340089</v>
+        <v>0.4336647048615254</v>
       </c>
       <c r="M10">
-        <v>1.260162364513012</v>
+        <v>0.449377599356428</v>
       </c>
       <c r="N10">
-        <v>1.260162364513012</v>
+        <v>0.449377599356428</v>
       </c>
       <c r="O10">
-        <v>1.151470974509476</v>
+        <v>0.4265321581412159</v>
       </c>
       <c r="P10">
-        <v>1.44213734773762</v>
+        <v>21.4945211968211</v>
       </c>
       <c r="Q10">
-        <v>1.44213734773762</v>
+        <v>21.4945211968211</v>
       </c>
       <c r="R10">
-        <v>1.533124839349924</v>
+        <v>32.01709299555344</v>
       </c>
       <c r="S10">
-        <v>1.533124839349924</v>
+        <v>32.01709299555344</v>
       </c>
       <c r="T10">
-        <v>1.142104982800174</v>
+        <v>10.9624445366846</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.661343158584538</v>
+        <v>2.425311684567569</v>
       </c>
       <c r="D11">
-        <v>3.202567282303995</v>
+        <v>0.4380012392924145</v>
       </c>
       <c r="E11">
-        <v>1.080867209023135</v>
+        <v>1.488447715844619</v>
       </c>
       <c r="F11">
-        <v>2.661343158584538</v>
+        <v>1.245205682840688</v>
       </c>
       <c r="G11">
-        <v>1.045622785961996</v>
+        <v>1.120381197536326</v>
       </c>
       <c r="H11">
-        <v>0.825649802885102</v>
+        <v>0.3407748917778118</v>
       </c>
       <c r="I11">
-        <v>0.8716980875580389</v>
+        <v>0.3407748917778118</v>
       </c>
       <c r="J11">
-        <v>3.202567282303995</v>
+        <v>2.425311684567569</v>
       </c>
       <c r="K11">
-        <v>2.661343158584538</v>
+        <v>2.425311684567569</v>
       </c>
       <c r="L11">
-        <v>1.080867209023135</v>
+        <v>1.120381197536326</v>
       </c>
       <c r="M11">
-        <v>2.141717245663565</v>
+        <v>0.7305780446570689</v>
       </c>
       <c r="N11">
-        <v>2.141717245663565</v>
+        <v>0.7305780446570689</v>
       </c>
       <c r="O11">
-        <v>1.703028098070744</v>
+        <v>0.6330524428688508</v>
       </c>
       <c r="P11">
-        <v>2.31492588330389</v>
+        <v>1.295489257960569</v>
       </c>
       <c r="Q11">
-        <v>2.31492588330389</v>
+        <v>1.295489257960569</v>
       </c>
       <c r="R11">
-        <v>2.401530202124052</v>
+        <v>1.577944864612319</v>
       </c>
       <c r="S11">
-        <v>2.401530202124052</v>
+        <v>1.577944864612319</v>
       </c>
       <c r="T11">
-        <v>1.614624721052801</v>
+        <v>1.176353735309905</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-0.0003421703317369174</v>
+        <v>10.69876407580066</v>
       </c>
       <c r="D12">
-        <v>0.004554680423049942</v>
+        <v>0.7328575296161802</v>
       </c>
       <c r="E12">
-        <v>0.5690785811988034</v>
+        <v>1.010517179464662</v>
       </c>
       <c r="F12">
-        <v>-0.0003421703317369174</v>
+        <v>0.8627124445254974</v>
       </c>
       <c r="G12">
-        <v>-0.002882229086911449</v>
+        <v>0.8724314012209687</v>
       </c>
       <c r="H12">
-        <v>0.2984651631758275</v>
+        <v>0.8664458556564376</v>
       </c>
       <c r="I12">
-        <v>1.197160491324863</v>
+        <v>0.8664458556564376</v>
       </c>
       <c r="J12">
-        <v>0.004554680423049942</v>
+        <v>10.69876407580066</v>
       </c>
       <c r="K12">
-        <v>-0.0003421703317369174</v>
+        <v>10.69876407580066</v>
       </c>
       <c r="L12">
-        <v>0.5690785811988034</v>
+        <v>0.8724314012209687</v>
       </c>
       <c r="M12">
-        <v>0.2868166308109267</v>
+        <v>0.8694386284387032</v>
       </c>
       <c r="N12">
-        <v>0.2868166308109267</v>
+        <v>0.8694386284387032</v>
       </c>
       <c r="O12">
-        <v>0.2906994749325603</v>
+        <v>0.8239115954978623</v>
       </c>
       <c r="P12">
-        <v>0.1910970304300388</v>
+        <v>4.14588044422602</v>
       </c>
       <c r="Q12">
-        <v>0.1910970304300388</v>
+        <v>4.14588044422602</v>
       </c>
       <c r="R12">
-        <v>0.1432372302395949</v>
+        <v>5.784101352119679</v>
       </c>
       <c r="S12">
-        <v>0.1432372302395949</v>
+        <v>5.784101352119679</v>
       </c>
       <c r="T12">
-        <v>0.344339086117316</v>
+        <v>2.5072880810474</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.949016081697426</v>
+        <v>1.439060095991848</v>
       </c>
       <c r="D13">
-        <v>1.697035567127595</v>
+        <v>1.028579344390774</v>
       </c>
       <c r="E13">
-        <v>-0.0002601929223607341</v>
+        <v>1.206369770785365</v>
       </c>
       <c r="F13">
-        <v>3.949016081697426</v>
+        <v>1.015286656186828</v>
       </c>
       <c r="G13">
-        <v>5.784812425470853</v>
+        <v>1.083962116746334</v>
       </c>
       <c r="H13">
-        <v>1.399430878682553</v>
+        <v>1.572793481629805</v>
       </c>
       <c r="I13">
-        <v>0.27731273393094</v>
+        <v>1.572793481629805</v>
       </c>
       <c r="J13">
-        <v>1.697035567127595</v>
+        <v>1.439060095991848</v>
       </c>
       <c r="K13">
-        <v>3.949016081697426</v>
+        <v>1.439060095991848</v>
       </c>
       <c r="L13">
-        <v>-0.0002601929223607341</v>
+        <v>1.083962116746334</v>
       </c>
       <c r="M13">
-        <v>0.848387687102617</v>
+        <v>1.32837779918807</v>
       </c>
       <c r="N13">
-        <v>0.848387687102617</v>
+        <v>1.32837779918807</v>
       </c>
       <c r="O13">
-        <v>1.032068750962596</v>
+        <v>1.228444980922305</v>
       </c>
       <c r="P13">
-        <v>1.881930485300887</v>
+        <v>1.365271898122662</v>
       </c>
       <c r="Q13">
-        <v>1.881930485300887</v>
+        <v>1.365271898122662</v>
       </c>
       <c r="R13">
-        <v>2.398701884400022</v>
+        <v>1.383718947589959</v>
       </c>
       <c r="S13">
-        <v>2.398701884400022</v>
+        <v>1.383718947589959</v>
       </c>
       <c r="T13">
-        <v>2.184557915664501</v>
+        <v>1.224341910955159</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0003899418825473288</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="D14">
-        <v>11.32531120823989</v>
+        <v>-0.001780275100000003</v>
       </c>
       <c r="E14">
-        <v>-0.0005623933642230907</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="F14">
-        <v>-0.0003899418825473288</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="G14">
-        <v>0.0006168176677112143</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="H14">
-        <v>1.939450867039163</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="I14">
-        <v>-0.0004015883134759706</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="J14">
-        <v>11.32531120823989</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="K14">
-        <v>-0.0003899418825473288</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="L14">
-        <v>-0.0005623933642230907</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="M14">
-        <v>5.662374407437833</v>
+        <v>-0.005765973784999996</v>
       </c>
       <c r="N14">
-        <v>5.662374407437833</v>
+        <v>-0.005765973784999996</v>
       </c>
       <c r="O14">
-        <v>4.42139989397161</v>
+        <v>-0.004437407556666665</v>
       </c>
       <c r="P14">
-        <v>3.774786290997707</v>
+        <v>40.37665935081004</v>
       </c>
       <c r="Q14">
-        <v>3.774786290997707</v>
+        <v>40.37665935081004</v>
       </c>
       <c r="R14">
-        <v>2.830992232777643</v>
+        <v>60.56787201310756</v>
       </c>
       <c r="S14">
-        <v>2.830992232777643</v>
+        <v>60.56787201310756</v>
       </c>
       <c r="T14">
-        <v>2.210670828231086</v>
+        <v>20.18862854932169</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.03481782273777063</v>
+        <v>0.00070900843</v>
       </c>
       <c r="D15">
-        <v>-0.002695329012334536</v>
+        <v>-0.012365781</v>
       </c>
       <c r="E15">
-        <v>1.60972298834738</v>
+        <v>0.011910205</v>
       </c>
       <c r="F15">
-        <v>0.03481782273777063</v>
+        <v>0.0090849982</v>
       </c>
       <c r="G15">
-        <v>-0.0009909289670925149</v>
+        <v>-0.0009775088</v>
       </c>
       <c r="H15">
-        <v>1.5791847424298</v>
+        <v>242.27911</v>
       </c>
       <c r="I15">
-        <v>1.178403091363843</v>
+        <v>242.27911</v>
       </c>
       <c r="J15">
-        <v>-0.002695329012334536</v>
+        <v>0.00070900843</v>
       </c>
       <c r="K15">
-        <v>0.03481782273777063</v>
+        <v>0.00070900843</v>
       </c>
       <c r="L15">
-        <v>1.60972298834738</v>
+        <v>-0.0009775088</v>
       </c>
       <c r="M15">
-        <v>0.8035138296675225</v>
+        <v>121.1390662456</v>
       </c>
       <c r="N15">
-        <v>0.8035138296675225</v>
+        <v>121.1390662456</v>
       </c>
       <c r="O15">
-        <v>1.062070800588282</v>
+        <v>80.75525557006667</v>
       </c>
       <c r="P15">
-        <v>0.5472818273576052</v>
+        <v>80.75961383321</v>
       </c>
       <c r="Q15">
-        <v>0.5472818273576052</v>
+        <v>80.75961383321</v>
       </c>
       <c r="R15">
-        <v>0.4191658262026466</v>
+        <v>60.569887627015</v>
       </c>
       <c r="S15">
-        <v>0.4191658262026466</v>
+        <v>60.569887627015</v>
       </c>
       <c r="T15">
-        <v>0.7330737311498944</v>
+        <v>40.38124515363833</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.129647210132084</v>
+        <v>121.14151</v>
       </c>
       <c r="D16">
-        <v>1.024851449846393</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="E16">
-        <v>1.08923183423657</v>
+        <v>0.010282672</v>
       </c>
       <c r="F16">
-        <v>1.129647210132084</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="G16">
-        <v>1.039934218879059</v>
+        <v>-0.012240956</v>
       </c>
       <c r="H16">
-        <v>0.9551086858860947</v>
+        <v>0.00070900843</v>
       </c>
       <c r="I16">
-        <v>1.037144558950829</v>
+        <v>0.00070900843</v>
       </c>
       <c r="J16">
-        <v>1.024851449846393</v>
+        <v>121.14151</v>
       </c>
       <c r="K16">
-        <v>1.129647210132084</v>
+        <v>121.14151</v>
       </c>
       <c r="L16">
-        <v>1.08923183423657</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M16">
-        <v>1.057041642041482</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N16">
-        <v>1.057041642041482</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O16">
-        <v>1.023063989989686</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P16">
-        <v>1.081243498071683</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q16">
-        <v>1.081243498071683</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R16">
-        <v>1.093344426086783</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S16">
-        <v>1.093344426086783</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T16">
-        <v>1.045986326321838</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9862463819789551</v>
+        <v>-0.0028360603</v>
       </c>
       <c r="D17">
-        <v>1.254579280824669</v>
+        <v>16.377499</v>
       </c>
       <c r="E17">
-        <v>0.9741665222393687</v>
+        <v>-0.0053427112</v>
       </c>
       <c r="F17">
-        <v>0.9862463819789551</v>
+        <v>0.010210149</v>
       </c>
       <c r="G17">
-        <v>1.253375835565659</v>
+        <v>-0.011459315</v>
       </c>
       <c r="H17">
-        <v>0.95386042839621</v>
+        <v>-0.030092917</v>
       </c>
       <c r="I17">
-        <v>1.027442230794067</v>
+        <v>-0.030092917</v>
       </c>
       <c r="J17">
-        <v>1.254579280824669</v>
+        <v>-0.0028360603</v>
       </c>
       <c r="K17">
-        <v>0.9862463819789551</v>
+        <v>-0.0028360603</v>
       </c>
       <c r="L17">
-        <v>0.9741665222393687</v>
+        <v>-0.011459315</v>
       </c>
       <c r="M17">
-        <v>1.114372901532019</v>
+        <v>-0.020776116</v>
       </c>
       <c r="N17">
-        <v>1.114372901532019</v>
+        <v>-0.020776116</v>
       </c>
       <c r="O17">
-        <v>1.060868743820083</v>
+        <v>5.445315589333333</v>
       </c>
       <c r="P17">
-        <v>1.071664061680998</v>
+        <v>-0.01479609743333333</v>
       </c>
       <c r="Q17">
-        <v>1.071664061680998</v>
+        <v>-0.01479609743333333</v>
       </c>
       <c r="R17">
-        <v>1.050309641755487</v>
+        <v>-0.01180608815</v>
       </c>
       <c r="S17">
-        <v>1.050309641755487</v>
+        <v>-0.01180608815</v>
       </c>
       <c r="T17">
-        <v>1.074945113299822</v>
+        <v>2.722996357583333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.117771084540931</v>
+        <v>3.734662364762876</v>
       </c>
       <c r="D18">
-        <v>2.158029257426949</v>
+        <v>0.001615994842739727</v>
       </c>
       <c r="E18">
-        <v>0.8750763187241264</v>
+        <v>11.17508419080274</v>
       </c>
       <c r="F18">
-        <v>1.117771084540931</v>
+        <v>-0.007234044796164386</v>
       </c>
       <c r="G18">
-        <v>0.453465029176684</v>
+        <v>3.723875504056985</v>
       </c>
       <c r="H18">
-        <v>0.6929678729736511</v>
+        <v>10.78818887902</v>
       </c>
       <c r="I18">
-        <v>0.9120937629321851</v>
+        <v>10.78818887902</v>
       </c>
       <c r="J18">
-        <v>2.158029257426949</v>
+        <v>3.734662364762876</v>
       </c>
       <c r="K18">
-        <v>1.117771084540931</v>
+        <v>3.734662364762876</v>
       </c>
       <c r="L18">
-        <v>0.8750763187241264</v>
+        <v>3.723875504056985</v>
       </c>
       <c r="M18">
-        <v>1.516552788075538</v>
+        <v>7.256032191538493</v>
       </c>
       <c r="N18">
-        <v>1.516552788075538</v>
+        <v>7.256032191538493</v>
       </c>
       <c r="O18">
-        <v>1.242024483041575</v>
+        <v>4.837893459306575</v>
       </c>
       <c r="P18">
-        <v>1.383625553564002</v>
+        <v>6.082242249279954</v>
       </c>
       <c r="Q18">
-        <v>1.383625553564002</v>
+        <v>6.082242249279954</v>
       </c>
       <c r="R18">
-        <v>1.317161936308235</v>
+        <v>5.495347278150684</v>
       </c>
       <c r="S18">
-        <v>1.317161936308235</v>
+        <v>5.495347278150684</v>
       </c>
       <c r="T18">
-        <v>1.034900554295754</v>
+        <v>4.90269881478153</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.591390138497335</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="D19">
-        <v>0.163138098782353</v>
+        <v>6.650801036336841</v>
       </c>
       <c r="E19">
-        <v>0.5240425028001061</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="F19">
-        <v>1.591390138497335</v>
+        <v>6.060929405263196E-05</v>
       </c>
       <c r="G19">
-        <v>0.3881501515463838</v>
+        <v>0.00457095178</v>
       </c>
       <c r="H19">
-        <v>1.398557080739225</v>
+        <v>14.35741520336105</v>
       </c>
       <c r="I19">
-        <v>0.9610114637170888</v>
+        <v>14.35741520336105</v>
       </c>
       <c r="J19">
-        <v>0.163138098782353</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="K19">
-        <v>1.591390138497335</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="L19">
-        <v>0.5240425028001061</v>
+        <v>0.00457095178</v>
       </c>
       <c r="M19">
-        <v>0.3435903007912295</v>
+        <v>7.180993077570526</v>
       </c>
       <c r="N19">
-        <v>0.3435903007912295</v>
+        <v>7.180993077570526</v>
       </c>
       <c r="O19">
-        <v>0.6952458941072278</v>
+        <v>7.004262397159297</v>
       </c>
       <c r="P19">
-        <v>0.759523580026598</v>
+        <v>9.304103711880879</v>
       </c>
       <c r="Q19">
-        <v>0.759523580026598</v>
+        <v>9.304103711880879</v>
       </c>
       <c r="R19">
-        <v>0.9674902196442823</v>
+        <v>10.36565902903606</v>
       </c>
       <c r="S19">
-        <v>0.9674902196442823</v>
+        <v>10.36565902903606</v>
       </c>
       <c r="T19">
-        <v>0.8377149060137485</v>
+        <v>5.761796825533309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>6.775185284685795</v>
+      </c>
+      <c r="D20">
+        <v>0.001342648583157895</v>
+      </c>
+      <c r="E20">
+        <v>10.73438975628421</v>
+      </c>
+      <c r="F20">
+        <v>-0.007005507619473684</v>
+      </c>
+      <c r="G20">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="H20">
+        <v>13.55024100243842</v>
+      </c>
+      <c r="I20">
+        <v>13.55024100243842</v>
+      </c>
+      <c r="J20">
+        <v>6.775185284685795</v>
+      </c>
+      <c r="K20">
+        <v>6.775185284685795</v>
+      </c>
+      <c r="L20">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="M20">
+        <v>8.563393214217895</v>
+      </c>
+      <c r="N20">
+        <v>8.563393214217895</v>
+      </c>
+      <c r="O20">
+        <v>5.709376359006316</v>
+      </c>
+      <c r="P20">
+        <v>7.967323904373861</v>
+      </c>
+      <c r="Q20">
+        <v>7.967323904373862</v>
+      </c>
+      <c r="R20">
+        <v>7.669289249451845</v>
+      </c>
+      <c r="S20">
+        <v>7.669289249451845</v>
+      </c>
+      <c r="T20">
+        <v>5.771783101728246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>-0.0003899418825473299</v>
+      </c>
+      <c r="D21">
+        <v>1.939450867039165</v>
+      </c>
+      <c r="E21">
+        <v>0.0006168176677112139</v>
+      </c>
+      <c r="F21">
+        <v>-0.0004015883134759693</v>
+      </c>
+      <c r="G21">
+        <v>-0.0005623933642230922</v>
+      </c>
+      <c r="H21">
+        <v>11.3253112082399</v>
+      </c>
+      <c r="I21">
+        <v>11.3253112082399</v>
+      </c>
+      <c r="J21">
+        <v>-0.0003899418825473299</v>
+      </c>
+      <c r="K21">
+        <v>-0.0003899418825473299</v>
+      </c>
+      <c r="L21">
+        <v>-0.0005623933642230922</v>
+      </c>
+      <c r="M21">
+        <v>5.662374407437837</v>
+      </c>
+      <c r="N21">
+        <v>5.662374407437837</v>
+      </c>
+      <c r="O21">
+        <v>4.421399893971613</v>
+      </c>
+      <c r="P21">
+        <v>3.774786290997709</v>
+      </c>
+      <c r="Q21">
+        <v>3.774786290997709</v>
+      </c>
+      <c r="R21">
+        <v>2.830992232777645</v>
+      </c>
+      <c r="S21">
+        <v>2.830992232777645</v>
+      </c>
+      <c r="T21">
+        <v>2.210670828231088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.03481782273777063</v>
+      </c>
+      <c r="D22">
+        <v>1.5791847424298</v>
+      </c>
+      <c r="E22">
+        <v>-0.0009909289670925157</v>
+      </c>
+      <c r="F22">
+        <v>1.178403091363843</v>
+      </c>
+      <c r="G22">
+        <v>1.60972298834738</v>
+      </c>
+      <c r="H22">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="I22">
+        <v>-0.002695329012334537</v>
+      </c>
+      <c r="J22">
+        <v>0.03481782273777063</v>
+      </c>
+      <c r="K22">
+        <v>0.03481782273777063</v>
+      </c>
+      <c r="L22">
+        <v>1.60972298834738</v>
+      </c>
+      <c r="M22">
+        <v>0.8035138296675229</v>
+      </c>
+      <c r="N22">
+        <v>0.8035138296675229</v>
+      </c>
+      <c r="O22">
+        <v>1.062070800588282</v>
+      </c>
+      <c r="P22">
+        <v>0.5472818273576056</v>
+      </c>
+      <c r="Q22">
+        <v>0.5472818273576056</v>
+      </c>
+      <c r="R22">
+        <v>0.4191658262026468</v>
+      </c>
+      <c r="S22">
+        <v>0.4191658262026468</v>
+      </c>
+      <c r="T22">
+        <v>0.7330737311498945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="D23">
+        <v>0.2984651631758272</v>
+      </c>
+      <c r="E23">
+        <v>-0.002882229086911449</v>
+      </c>
+      <c r="F23">
+        <v>1.19716049132486</v>
+      </c>
+      <c r="G23">
+        <v>0.5690785811988043</v>
+      </c>
+      <c r="H23">
+        <v>0.004554680423049943</v>
+      </c>
+      <c r="I23">
+        <v>0.004554680423049943</v>
+      </c>
+      <c r="J23">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="K23">
+        <v>-0.0003421703317369149</v>
+      </c>
+      <c r="L23">
+        <v>0.5690785811988043</v>
+      </c>
+      <c r="M23">
+        <v>0.2868166308109271</v>
+      </c>
+      <c r="N23">
+        <v>0.2868166308109271</v>
+      </c>
+      <c r="O23">
+        <v>0.2906994749325605</v>
+      </c>
+      <c r="P23">
+        <v>0.1910970304300391</v>
+      </c>
+      <c r="Q23">
+        <v>0.1910970304300391</v>
+      </c>
+      <c r="R23">
+        <v>0.1432372302395951</v>
+      </c>
+      <c r="S23">
+        <v>0.1432372302395951</v>
+      </c>
+      <c r="T23">
+        <v>0.3443390861173155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="D24">
+        <v>1.399430878682554</v>
+      </c>
+      <c r="E24">
+        <v>5.784812425470848</v>
+      </c>
+      <c r="F24">
+        <v>0.2773127339309403</v>
+      </c>
+      <c r="G24">
+        <v>-0.0002601929223607322</v>
+      </c>
+      <c r="H24">
+        <v>1.697035567127595</v>
+      </c>
+      <c r="I24">
+        <v>1.697035567127595</v>
+      </c>
+      <c r="J24">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="K24">
+        <v>3.94901608169743</v>
+      </c>
+      <c r="L24">
+        <v>-0.0002601929223607322</v>
+      </c>
+      <c r="M24">
+        <v>0.848387687102617</v>
+      </c>
+      <c r="N24">
+        <v>0.848387687102617</v>
+      </c>
+      <c r="O24">
+        <v>1.032068750962596</v>
+      </c>
+      <c r="P24">
+        <v>1.881930485300888</v>
+      </c>
+      <c r="Q24">
+        <v>1.881930485300888</v>
+      </c>
+      <c r="R24">
+        <v>2.398701884400023</v>
+      </c>
+      <c r="S24">
+        <v>2.398701884400023</v>
+      </c>
+      <c r="T24">
+        <v>2.184557915664501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>-0.0006148049061772198</v>
+      </c>
+      <c r="D25">
+        <v>-0.0001539663275807707</v>
+      </c>
+      <c r="E25">
+        <v>-0.00560906227579368</v>
+      </c>
+      <c r="F25">
+        <v>0.009354820609377012</v>
+      </c>
+      <c r="G25">
+        <v>0.217754540940984</v>
+      </c>
+      <c r="H25">
+        <v>-0.001881162476360867</v>
+      </c>
+      <c r="I25">
+        <v>-0.001881162476360867</v>
+      </c>
+      <c r="J25">
+        <v>-0.0006148049061772198</v>
+      </c>
+      <c r="K25">
+        <v>-0.0006148049061772198</v>
+      </c>
+      <c r="L25">
+        <v>0.217754540940984</v>
+      </c>
+      <c r="M25">
+        <v>0.1079366892323116</v>
+      </c>
+      <c r="N25">
+        <v>0.1079366892323116</v>
+      </c>
+      <c r="O25">
+        <v>0.07190647071234745</v>
+      </c>
+      <c r="P25">
+        <v>0.07175285785281531</v>
+      </c>
+      <c r="Q25">
+        <v>0.07175285785281529</v>
+      </c>
+      <c r="R25">
+        <v>0.05366094216306717</v>
+      </c>
+      <c r="S25">
+        <v>0.05366094216306717</v>
+      </c>
+      <c r="T25">
+        <v>0.03647506092740807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.05920021582815128</v>
+      </c>
+      <c r="D26">
+        <v>0.001041557758849685</v>
+      </c>
+      <c r="E26">
+        <v>0.002781329987213234</v>
+      </c>
+      <c r="F26">
+        <v>1.880683109819564</v>
+      </c>
+      <c r="G26">
+        <v>0.2195736007113997</v>
+      </c>
+      <c r="H26">
+        <v>-0.002980182134650026</v>
+      </c>
+      <c r="I26">
+        <v>-0.002980182134650026</v>
+      </c>
+      <c r="J26">
+        <v>0.05920021582815128</v>
+      </c>
+      <c r="K26">
+        <v>0.05920021582815128</v>
+      </c>
+      <c r="L26">
+        <v>0.2195736007113997</v>
+      </c>
+      <c r="M26">
+        <v>0.1082967092883748</v>
+      </c>
+      <c r="N26">
+        <v>0.1082967092883748</v>
+      </c>
+      <c r="O26">
+        <v>0.07254499211186645</v>
+      </c>
+      <c r="P26">
+        <v>0.09193121146830031</v>
+      </c>
+      <c r="Q26">
+        <v>0.09193121146830031</v>
+      </c>
+      <c r="R26">
+        <v>0.08374846255826306</v>
+      </c>
+      <c r="S26">
+        <v>0.08374846255826306</v>
+      </c>
+      <c r="T26">
+        <v>0.3600499386617547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>7.126228920454707</v>
+      </c>
+      <c r="D27">
+        <v>1.772861162904885</v>
+      </c>
+      <c r="E27">
+        <v>3.242030450027406</v>
+      </c>
+      <c r="F27">
+        <v>0.002371548944927482</v>
+      </c>
+      <c r="G27">
+        <v>0.9200931445365077</v>
+      </c>
+      <c r="H27">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="I27">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="J27">
+        <v>7.126228920454707</v>
+      </c>
+      <c r="K27">
+        <v>7.126228920454707</v>
+      </c>
+      <c r="L27">
+        <v>0.9200931445365077</v>
+      </c>
+      <c r="M27">
+        <v>0.4571873263537789</v>
+      </c>
+      <c r="N27">
+        <v>0.4571873263537789</v>
+      </c>
+      <c r="O27">
+        <v>0.8957452718708142</v>
+      </c>
+      <c r="P27">
+        <v>2.680201191054088</v>
+      </c>
+      <c r="Q27">
+        <v>2.680201191054088</v>
+      </c>
+      <c r="R27">
+        <v>3.791708123404243</v>
+      </c>
+      <c r="S27">
+        <v>3.791708123404243</v>
+      </c>
+      <c r="T27">
+        <v>2.176311122506581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.06887678046440515</v>
+      </c>
+      <c r="D28">
+        <v>0.00627731671218913</v>
+      </c>
+      <c r="E28">
+        <v>2.291950558280325</v>
+      </c>
+      <c r="F28">
+        <v>0.07323203089736487</v>
+      </c>
+      <c r="G28">
+        <v>0.3795333233350823</v>
+      </c>
+      <c r="H28">
+        <v>0.3656806816609835</v>
+      </c>
+      <c r="I28">
+        <v>0.3656806816609835</v>
+      </c>
+      <c r="J28">
+        <v>0.06887678046440515</v>
+      </c>
+      <c r="K28">
+        <v>0.06887678046440515</v>
+      </c>
+      <c r="L28">
+        <v>0.3795333233350823</v>
+      </c>
+      <c r="M28">
+        <v>0.3726070024980329</v>
+      </c>
+      <c r="N28">
+        <v>0.3726070024980329</v>
+      </c>
+      <c r="O28">
+        <v>0.250497107236085</v>
+      </c>
+      <c r="P28">
+        <v>0.2713635951534903</v>
+      </c>
+      <c r="Q28">
+        <v>0.2713635951534903</v>
+      </c>
+      <c r="R28">
+        <v>0.220741891481219</v>
+      </c>
+      <c r="S28">
+        <v>0.220741891481219</v>
+      </c>
+      <c r="T28">
+        <v>0.5309251152250583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.1598470335593815</v>
+      </c>
+      <c r="D29">
+        <v>0.005317559885614847</v>
+      </c>
+      <c r="E29">
+        <v>5.163595772189805</v>
+      </c>
+      <c r="F29">
+        <v>-0.001343396307482001</v>
+      </c>
+      <c r="G29">
+        <v>0.008285393584049359</v>
+      </c>
+      <c r="H29">
+        <v>0.8197752177394318</v>
+      </c>
+      <c r="I29">
+        <v>0.8197752177394318</v>
+      </c>
+      <c r="J29">
+        <v>0.1598470335593815</v>
+      </c>
+      <c r="K29">
+        <v>0.1598470335593815</v>
+      </c>
+      <c r="L29">
+        <v>0.008285393584049359</v>
+      </c>
+      <c r="M29">
+        <v>0.4140303056617406</v>
+      </c>
+      <c r="N29">
+        <v>0.4140303056617406</v>
+      </c>
+      <c r="O29">
+        <v>0.2777927237363654</v>
+      </c>
+      <c r="P29">
+        <v>0.3293025482942876</v>
+      </c>
+      <c r="Q29">
+        <v>0.3293025482942876</v>
+      </c>
+      <c r="R29">
+        <v>0.2869386696105611</v>
+      </c>
+      <c r="S29">
+        <v>0.2869386696105611</v>
+      </c>
+      <c r="T29">
+        <v>1.025912930108467</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.378768599492833</v>
+        <v>4.723790133246625</v>
       </c>
       <c r="D4">
-        <v>0.8935232533570781</v>
+        <v>0.8243751953151571</v>
       </c>
       <c r="E4">
-        <v>1.009639616000214</v>
+        <v>0.9950484231798352</v>
       </c>
       <c r="F4">
-        <v>0.958683181437361</v>
+        <v>0.9719426349527742</v>
       </c>
       <c r="G4">
-        <v>0.9149610484736869</v>
+        <v>0.9460216726130078</v>
       </c>
       <c r="H4">
-        <v>1.012508668901216</v>
+        <v>0.6979339306661129</v>
       </c>
       <c r="I4">
-        <v>1.012508668901216</v>
+        <v>0.6979339306661129</v>
       </c>
       <c r="J4">
-        <v>2.378768599492833</v>
+        <v>4.723790133246625</v>
       </c>
       <c r="K4">
-        <v>2.378768599492833</v>
+        <v>4.723790133246625</v>
       </c>
       <c r="L4">
-        <v>0.9149610484736869</v>
+        <v>0.9460216726130078</v>
       </c>
       <c r="M4">
-        <v>0.9637348586874512</v>
+        <v>0.8219778016395604</v>
       </c>
       <c r="N4">
-        <v>0.9637348586874512</v>
+        <v>0.8219778016395604</v>
       </c>
       <c r="O4">
-        <v>0.9403309902439935</v>
+        <v>0.8227769328647593</v>
       </c>
       <c r="P4">
-        <v>1.435412772289245</v>
+        <v>2.122581912175248</v>
       </c>
       <c r="Q4">
-        <v>1.435412772289245</v>
+        <v>2.122581912175248</v>
       </c>
       <c r="R4">
-        <v>1.671251729090142</v>
+        <v>2.772883967443093</v>
       </c>
       <c r="S4">
-        <v>1.671251729090142</v>
+        <v>2.772883967443093</v>
       </c>
       <c r="T4">
-        <v>1.194680727943731</v>
+        <v>1.526518664995585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.558203007118548</v>
+        <v>0.6933168727090753</v>
       </c>
       <c r="D5">
-        <v>0.771308351057659</v>
+        <v>0.002216029919211659</v>
       </c>
       <c r="E5">
-        <v>1.315797018859849</v>
+        <v>11.85567036476542</v>
       </c>
       <c r="F5">
-        <v>0.9090625261027812</v>
+        <v>-0.00725402253604594</v>
       </c>
       <c r="G5">
-        <v>1.01307189253619</v>
+        <v>3.957814197546023</v>
       </c>
       <c r="H5">
-        <v>1.195873929991311</v>
+        <v>8.979342344833363</v>
       </c>
       <c r="I5">
-        <v>1.195873929991311</v>
+        <v>8.979342344833363</v>
       </c>
       <c r="J5">
-        <v>7.558203007118548</v>
+        <v>0.6933168727090753</v>
       </c>
       <c r="K5">
-        <v>7.558203007118548</v>
+        <v>0.6933168727090753</v>
       </c>
       <c r="L5">
-        <v>1.01307189253619</v>
+        <v>3.957814197546023</v>
       </c>
       <c r="M5">
-        <v>1.104472911263751</v>
+        <v>6.468578271189693</v>
       </c>
       <c r="N5">
-        <v>1.104472911263751</v>
+        <v>6.468578271189693</v>
       </c>
       <c r="O5">
-        <v>0.99341805786172</v>
+        <v>4.313124190766199</v>
       </c>
       <c r="P5">
-        <v>3.255716276548684</v>
+        <v>4.54349113836282</v>
       </c>
       <c r="Q5">
-        <v>3.255716276548684</v>
+        <v>4.54349113836282</v>
       </c>
       <c r="R5">
-        <v>4.331337959191149</v>
+        <v>3.580947571949384</v>
       </c>
       <c r="S5">
-        <v>4.331337959191149</v>
+        <v>3.580947571949384</v>
       </c>
       <c r="T5">
-        <v>2.127219454277723</v>
+        <v>4.246850964539507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>62.75842379450049</v>
+        <v>2.378768599492833</v>
       </c>
       <c r="D6">
-        <v>0.4469581738379</v>
+        <v>0.8935232533570781</v>
       </c>
       <c r="E6">
-        <v>0.6602454914644297</v>
+        <v>1.009639616000214</v>
       </c>
       <c r="F6">
-        <v>0.5234042187246915</v>
+        <v>0.958683181437361</v>
       </c>
       <c r="G6">
-        <v>0.4435040455173282</v>
+        <v>0.9149610484736869</v>
       </c>
       <c r="H6">
-        <v>0.4532072119093449</v>
+        <v>1.012508668901216</v>
       </c>
       <c r="I6">
-        <v>0.4532072119093449</v>
+        <v>1.012508668901216</v>
       </c>
       <c r="J6">
-        <v>62.75842379450049</v>
+        <v>2.378768599492833</v>
       </c>
       <c r="K6">
-        <v>62.75842379450049</v>
+        <v>2.378768599492833</v>
       </c>
       <c r="L6">
-        <v>0.4435040455173282</v>
+        <v>0.9149610484736869</v>
       </c>
       <c r="M6">
-        <v>0.4483556287133366</v>
+        <v>0.9637348586874512</v>
       </c>
       <c r="N6">
-        <v>0.4483556287133366</v>
+        <v>0.9637348586874512</v>
       </c>
       <c r="O6">
-        <v>0.4478898104215244</v>
+        <v>0.9403309902439935</v>
       </c>
       <c r="P6">
-        <v>21.21837835064239</v>
+        <v>1.435412772289245</v>
       </c>
       <c r="Q6">
-        <v>21.21837835064239</v>
+        <v>1.435412772289245</v>
       </c>
       <c r="R6">
-        <v>31.60338971160691</v>
+        <v>1.671251729090142</v>
       </c>
       <c r="S6">
-        <v>31.60338971160691</v>
+        <v>1.671251729090142</v>
       </c>
       <c r="T6">
-        <v>10.88095715599236</v>
+        <v>1.194680727943731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.263645403266293</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="D7">
-        <v>0.9061941590403847</v>
+        <v>0.771308351057659</v>
       </c>
       <c r="E7">
-        <v>1.736394243543359</v>
+        <v>1.315797018859849</v>
       </c>
       <c r="F7">
-        <v>0.9776251728065969</v>
+        <v>0.9090625261027812</v>
       </c>
       <c r="G7">
-        <v>1.154589893974013</v>
+        <v>1.01307189253619</v>
       </c>
       <c r="H7">
-        <v>1.318174206136428</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="I7">
-        <v>1.318174206136428</v>
+        <v>1.195873929991311</v>
       </c>
       <c r="J7">
-        <v>1.263645403266293</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="K7">
-        <v>1.263645403266293</v>
+        <v>7.558203007118548</v>
       </c>
       <c r="L7">
-        <v>1.154589893974013</v>
+        <v>1.01307189253619</v>
       </c>
       <c r="M7">
-        <v>1.23638205005522</v>
+        <v>1.104472911263751</v>
       </c>
       <c r="N7">
-        <v>1.23638205005522</v>
+        <v>1.104472911263751</v>
       </c>
       <c r="O7">
-        <v>1.126319419716942</v>
+        <v>0.99341805786172</v>
       </c>
       <c r="P7">
-        <v>1.245469834458911</v>
+        <v>3.255716276548684</v>
       </c>
       <c r="Q7">
-        <v>1.245469834458911</v>
+        <v>3.255716276548684</v>
       </c>
       <c r="R7">
-        <v>1.250013726660757</v>
+        <v>4.331337959191149</v>
       </c>
       <c r="S7">
-        <v>1.250013726660757</v>
+        <v>4.331337959191149</v>
       </c>
       <c r="T7">
-        <v>1.226103846461179</v>
+        <v>2.127219454277723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9862463819789583</v>
+        <v>62.75842379450049</v>
       </c>
       <c r="D8">
-        <v>0.9538604283962088</v>
+        <v>0.4469581738379</v>
       </c>
       <c r="E8">
-        <v>1.253375835565662</v>
+        <v>0.6602454914644297</v>
       </c>
       <c r="F8">
-        <v>1.027442230794068</v>
+        <v>0.5234042187246915</v>
       </c>
       <c r="G8">
-        <v>0.9741665222393703</v>
+        <v>0.4435040455173282</v>
       </c>
       <c r="H8">
-        <v>1.25457928082467</v>
+        <v>0.4532072119093449</v>
       </c>
       <c r="I8">
-        <v>1.25457928082467</v>
+        <v>0.4532072119093449</v>
       </c>
       <c r="J8">
-        <v>0.9862463819789583</v>
+        <v>62.75842379450049</v>
       </c>
       <c r="K8">
-        <v>0.9862463819789583</v>
+        <v>62.75842379450049</v>
       </c>
       <c r="L8">
-        <v>0.9741665222393703</v>
+        <v>0.4435040455173282</v>
       </c>
       <c r="M8">
-        <v>1.11437290153202</v>
+        <v>0.4483556287133366</v>
       </c>
       <c r="N8">
-        <v>1.11437290153202</v>
+        <v>0.4483556287133366</v>
       </c>
       <c r="O8">
-        <v>1.060868743820083</v>
+        <v>0.4478898104215244</v>
       </c>
       <c r="P8">
-        <v>1.071664061681</v>
+        <v>21.21837835064239</v>
       </c>
       <c r="Q8">
-        <v>1.071664061681</v>
+        <v>21.21837835064239</v>
       </c>
       <c r="R8">
-        <v>1.050309641755489</v>
+        <v>31.60338971160691</v>
       </c>
       <c r="S8">
-        <v>1.050309641755489</v>
+        <v>31.60338971160691</v>
       </c>
       <c r="T8">
-        <v>1.074945113299823</v>
+        <v>10.88095715599236</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.334292287912513</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="D9">
-        <v>0.8172320540202065</v>
+        <v>0.9061941590403847</v>
       </c>
       <c r="E9">
-        <v>2.502563244388664</v>
+        <v>1.736394243543359</v>
       </c>
       <c r="F9">
-        <v>1.137814685895308</v>
+        <v>0.9776251728065969</v>
       </c>
       <c r="G9">
-        <v>1.312414567097076</v>
+        <v>1.154589893974013</v>
       </c>
       <c r="H9">
-        <v>1.737050942784302</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="I9">
-        <v>1.737050942784302</v>
+        <v>1.318174206136428</v>
       </c>
       <c r="J9">
-        <v>1.334292287912513</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="K9">
-        <v>1.334292287912513</v>
+        <v>1.263645403266293</v>
       </c>
       <c r="L9">
-        <v>1.312414567097076</v>
+        <v>1.154589893974013</v>
       </c>
       <c r="M9">
-        <v>1.524732754940689</v>
+        <v>1.23638205005522</v>
       </c>
       <c r="N9">
-        <v>1.524732754940689</v>
+        <v>1.23638205005522</v>
       </c>
       <c r="O9">
-        <v>1.288899187967195</v>
+        <v>1.126319419716942</v>
       </c>
       <c r="P9">
-        <v>1.46125259926463</v>
+        <v>1.245469834458911</v>
       </c>
       <c r="Q9">
-        <v>1.46125259926463</v>
+        <v>1.245469834458911</v>
       </c>
       <c r="R9">
-        <v>1.429512521426601</v>
+        <v>1.250013726660757</v>
       </c>
       <c r="S9">
-        <v>1.429512521426601</v>
+        <v>1.250013726660757</v>
       </c>
       <c r="T9">
-        <v>1.473561297016345</v>
+        <v>1.226103846461179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>63.58480839175045</v>
+        <v>0.9862463819789583</v>
       </c>
       <c r="D10">
-        <v>0.3808412757107916</v>
+        <v>0.9538604283962088</v>
       </c>
       <c r="E10">
-        <v>0.4501427105209644</v>
+        <v>1.253375835565662</v>
       </c>
       <c r="F10">
-        <v>0.4601196434125159</v>
+        <v>1.027442230794068</v>
       </c>
       <c r="G10">
-        <v>0.4336647048615254</v>
+        <v>0.9741665222393703</v>
       </c>
       <c r="H10">
-        <v>0.4650904938513307</v>
+        <v>1.25457928082467</v>
       </c>
       <c r="I10">
-        <v>0.4650904938513307</v>
+        <v>1.25457928082467</v>
       </c>
       <c r="J10">
-        <v>63.58480839175045</v>
+        <v>0.9862463819789583</v>
       </c>
       <c r="K10">
-        <v>63.58480839175045</v>
+        <v>0.9862463819789583</v>
       </c>
       <c r="L10">
-        <v>0.4336647048615254</v>
+        <v>0.9741665222393703</v>
       </c>
       <c r="M10">
-        <v>0.449377599356428</v>
+        <v>1.11437290153202</v>
       </c>
       <c r="N10">
-        <v>0.449377599356428</v>
+        <v>1.11437290153202</v>
       </c>
       <c r="O10">
-        <v>0.4265321581412159</v>
+        <v>1.060868743820083</v>
       </c>
       <c r="P10">
-        <v>21.4945211968211</v>
+        <v>1.071664061681</v>
       </c>
       <c r="Q10">
-        <v>21.4945211968211</v>
+        <v>1.071664061681</v>
       </c>
       <c r="R10">
-        <v>32.01709299555344</v>
+        <v>1.050309641755489</v>
       </c>
       <c r="S10">
-        <v>32.01709299555344</v>
+        <v>1.050309641755489</v>
       </c>
       <c r="T10">
-        <v>10.9624445366846</v>
+        <v>1.074945113299823</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.425311684567569</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="D11">
-        <v>0.4380012392924145</v>
+        <v>0.8172320540202065</v>
       </c>
       <c r="E11">
-        <v>1.488447715844619</v>
+        <v>2.502563244388664</v>
       </c>
       <c r="F11">
-        <v>1.245205682840688</v>
+        <v>1.137814685895308</v>
       </c>
       <c r="G11">
-        <v>1.120381197536326</v>
+        <v>1.312414567097076</v>
       </c>
       <c r="H11">
-        <v>0.3407748917778118</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="I11">
-        <v>0.3407748917778118</v>
+        <v>1.737050942784302</v>
       </c>
       <c r="J11">
-        <v>2.425311684567569</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="K11">
-        <v>2.425311684567569</v>
+        <v>1.334292287912513</v>
       </c>
       <c r="L11">
-        <v>1.120381197536326</v>
+        <v>1.312414567097076</v>
       </c>
       <c r="M11">
-        <v>0.7305780446570689</v>
+        <v>1.524732754940689</v>
       </c>
       <c r="N11">
-        <v>0.7305780446570689</v>
+        <v>1.524732754940689</v>
       </c>
       <c r="O11">
-        <v>0.6330524428688508</v>
+        <v>1.288899187967195</v>
       </c>
       <c r="P11">
-        <v>1.295489257960569</v>
+        <v>1.46125259926463</v>
       </c>
       <c r="Q11">
-        <v>1.295489257960569</v>
+        <v>1.46125259926463</v>
       </c>
       <c r="R11">
-        <v>1.577944864612319</v>
+        <v>1.429512521426601</v>
       </c>
       <c r="S11">
-        <v>1.577944864612319</v>
+        <v>1.429512521426601</v>
       </c>
       <c r="T11">
-        <v>1.176353735309905</v>
+        <v>1.473561297016345</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>10.69876407580066</v>
+        <v>63.58480839175045</v>
       </c>
       <c r="D12">
-        <v>0.7328575296161802</v>
+        <v>0.3808412757107916</v>
       </c>
       <c r="E12">
-        <v>1.010517179464662</v>
+        <v>0.4501427105209644</v>
       </c>
       <c r="F12">
-        <v>0.8627124445254974</v>
+        <v>0.4601196434125159</v>
       </c>
       <c r="G12">
-        <v>0.8724314012209687</v>
+        <v>0.4336647048615254</v>
       </c>
       <c r="H12">
-        <v>0.8664458556564376</v>
+        <v>0.4650904938513307</v>
       </c>
       <c r="I12">
-        <v>0.8664458556564376</v>
+        <v>0.4650904938513307</v>
       </c>
       <c r="J12">
-        <v>10.69876407580066</v>
+        <v>63.58480839175045</v>
       </c>
       <c r="K12">
-        <v>10.69876407580066</v>
+        <v>63.58480839175045</v>
       </c>
       <c r="L12">
-        <v>0.8724314012209687</v>
+        <v>0.4336647048615254</v>
       </c>
       <c r="M12">
-        <v>0.8694386284387032</v>
+        <v>0.449377599356428</v>
       </c>
       <c r="N12">
-        <v>0.8694386284387032</v>
+        <v>0.449377599356428</v>
       </c>
       <c r="O12">
-        <v>0.8239115954978623</v>
+        <v>0.4265321581412159</v>
       </c>
       <c r="P12">
-        <v>4.14588044422602</v>
+        <v>21.4945211968211</v>
       </c>
       <c r="Q12">
-        <v>4.14588044422602</v>
+        <v>21.4945211968211</v>
       </c>
       <c r="R12">
-        <v>5.784101352119679</v>
+        <v>32.01709299555344</v>
       </c>
       <c r="S12">
-        <v>5.784101352119679</v>
+        <v>32.01709299555344</v>
       </c>
       <c r="T12">
-        <v>2.5072880810474</v>
+        <v>10.9624445366846</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.439060095991848</v>
+        <v>2.425311684567569</v>
       </c>
       <c r="D13">
-        <v>1.028579344390774</v>
+        <v>0.4380012392924145</v>
       </c>
       <c r="E13">
-        <v>1.206369770785365</v>
+        <v>1.488447715844619</v>
       </c>
       <c r="F13">
-        <v>1.015286656186828</v>
+        <v>1.245205682840688</v>
       </c>
       <c r="G13">
-        <v>1.083962116746334</v>
+        <v>1.120381197536326</v>
       </c>
       <c r="H13">
-        <v>1.572793481629805</v>
+        <v>0.3407748917778118</v>
       </c>
       <c r="I13">
-        <v>1.572793481629805</v>
+        <v>0.3407748917778118</v>
       </c>
       <c r="J13">
-        <v>1.439060095991848</v>
+        <v>2.425311684567569</v>
       </c>
       <c r="K13">
-        <v>1.439060095991848</v>
+        <v>2.425311684567569</v>
       </c>
       <c r="L13">
-        <v>1.083962116746334</v>
+        <v>1.120381197536326</v>
       </c>
       <c r="M13">
-        <v>1.32837779918807</v>
+        <v>0.7305780446570689</v>
       </c>
       <c r="N13">
-        <v>1.32837779918807</v>
+        <v>0.7305780446570689</v>
       </c>
       <c r="O13">
-        <v>1.228444980922305</v>
+        <v>0.6330524428688508</v>
       </c>
       <c r="P13">
-        <v>1.365271898122662</v>
+        <v>1.295489257960569</v>
       </c>
       <c r="Q13">
-        <v>1.365271898122662</v>
+        <v>1.295489257960569</v>
       </c>
       <c r="R13">
-        <v>1.383718947589959</v>
+        <v>1.577944864612319</v>
       </c>
       <c r="S13">
-        <v>1.383718947589959</v>
+        <v>1.577944864612319</v>
       </c>
       <c r="T13">
-        <v>1.224341910955159</v>
+        <v>1.176353735309905</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>121.1415100000001</v>
+        <v>10.69876407580066</v>
       </c>
       <c r="D14">
-        <v>-0.001780275100000003</v>
+        <v>0.7328575296161802</v>
       </c>
       <c r="E14">
-        <v>0.01028267199999999</v>
+        <v>1.010517179464662</v>
       </c>
       <c r="F14">
-        <v>-0.0067091534</v>
+        <v>0.8627124445254974</v>
       </c>
       <c r="G14">
-        <v>-0.01224095599999999</v>
+        <v>0.8724314012209687</v>
       </c>
       <c r="H14">
-        <v>0.0007090084299999996</v>
+        <v>0.8664458556564376</v>
       </c>
       <c r="I14">
-        <v>0.0007090084299999996</v>
+        <v>0.8664458556564376</v>
       </c>
       <c r="J14">
-        <v>121.1415100000001</v>
+        <v>10.69876407580066</v>
       </c>
       <c r="K14">
-        <v>121.1415100000001</v>
+        <v>10.69876407580066</v>
       </c>
       <c r="L14">
-        <v>-0.01224095599999999</v>
+        <v>0.8724314012209687</v>
       </c>
       <c r="M14">
-        <v>-0.005765973784999996</v>
+        <v>0.8694386284387032</v>
       </c>
       <c r="N14">
-        <v>-0.005765973784999996</v>
+        <v>0.8694386284387032</v>
       </c>
       <c r="O14">
-        <v>-0.004437407556666665</v>
+        <v>0.8239115954978623</v>
       </c>
       <c r="P14">
-        <v>40.37665935081004</v>
+        <v>4.14588044422602</v>
       </c>
       <c r="Q14">
-        <v>40.37665935081004</v>
+        <v>4.14588044422602</v>
       </c>
       <c r="R14">
-        <v>60.56787201310756</v>
+        <v>5.784101352119679</v>
       </c>
       <c r="S14">
-        <v>60.56787201310756</v>
+        <v>5.784101352119679</v>
       </c>
       <c r="T14">
-        <v>20.18862854932169</v>
+        <v>2.5072880810474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.00070900843</v>
+        <v>1.439060095991848</v>
       </c>
       <c r="D15">
-        <v>-0.012365781</v>
+        <v>1.028579344390774</v>
       </c>
       <c r="E15">
-        <v>0.011910205</v>
+        <v>1.206369770785365</v>
       </c>
       <c r="F15">
-        <v>0.0090849982</v>
+        <v>1.015286656186828</v>
       </c>
       <c r="G15">
-        <v>-0.0009775088</v>
+        <v>1.083962116746334</v>
       </c>
       <c r="H15">
-        <v>242.27911</v>
+        <v>1.572793481629805</v>
       </c>
       <c r="I15">
-        <v>242.27911</v>
+        <v>1.572793481629805</v>
       </c>
       <c r="J15">
-        <v>0.00070900843</v>
+        <v>1.439060095991848</v>
       </c>
       <c r="K15">
-        <v>0.00070900843</v>
+        <v>1.439060095991848</v>
       </c>
       <c r="L15">
-        <v>-0.0009775088</v>
+        <v>1.083962116746334</v>
       </c>
       <c r="M15">
-        <v>121.1390662456</v>
+        <v>1.32837779918807</v>
       </c>
       <c r="N15">
-        <v>121.1390662456</v>
+        <v>1.32837779918807</v>
       </c>
       <c r="O15">
-        <v>80.75525557006667</v>
+        <v>1.228444980922305</v>
       </c>
       <c r="P15">
-        <v>80.75961383321</v>
+        <v>1.365271898122662</v>
       </c>
       <c r="Q15">
-        <v>80.75961383321</v>
+        <v>1.365271898122662</v>
       </c>
       <c r="R15">
-        <v>60.569887627015</v>
+        <v>1.383718947589959</v>
       </c>
       <c r="S15">
-        <v>60.569887627015</v>
+        <v>1.383718947589959</v>
       </c>
       <c r="T15">
-        <v>40.38124515363833</v>
+        <v>1.224341910955159</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>121.14151</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="D16">
-        <v>-0.0017802751</v>
+        <v>-0.001780275100000003</v>
       </c>
       <c r="E16">
-        <v>0.010282672</v>
+        <v>0.01028267199999999</v>
       </c>
       <c r="F16">
         <v>-0.0067091534</v>
       </c>
       <c r="G16">
-        <v>-0.012240956</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="H16">
-        <v>0.00070900843</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="I16">
-        <v>0.00070900843</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="J16">
-        <v>121.14151</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="K16">
-        <v>121.14151</v>
+        <v>121.1415100000001</v>
       </c>
       <c r="L16">
-        <v>-0.012240956</v>
+        <v>-0.01224095599999999</v>
       </c>
       <c r="M16">
-        <v>-0.005765973785000001</v>
+        <v>-0.005765973784999996</v>
       </c>
       <c r="N16">
-        <v>-0.005765973785000001</v>
+        <v>-0.005765973784999996</v>
       </c>
       <c r="O16">
-        <v>-0.004437407556666668</v>
+        <v>-0.004437407556666665</v>
       </c>
       <c r="P16">
-        <v>40.37665935080999</v>
+        <v>40.37665935081004</v>
       </c>
       <c r="Q16">
-        <v>40.37665935080999</v>
+        <v>40.37665935081004</v>
       </c>
       <c r="R16">
-        <v>60.5678720131075</v>
+        <v>60.56787201310756</v>
       </c>
       <c r="S16">
-        <v>60.5678720131075</v>
+        <v>60.56787201310756</v>
       </c>
       <c r="T16">
-        <v>20.18862854932167</v>
+        <v>20.18862854932169</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.0028360603</v>
+        <v>0.00070900843</v>
       </c>
       <c r="D17">
-        <v>16.377499</v>
+        <v>-0.012365781</v>
       </c>
       <c r="E17">
-        <v>-0.0053427112</v>
+        <v>0.011910205</v>
       </c>
       <c r="F17">
-        <v>0.010210149</v>
+        <v>0.0090849982</v>
       </c>
       <c r="G17">
-        <v>-0.011459315</v>
+        <v>-0.0009775088</v>
       </c>
       <c r="H17">
-        <v>-0.030092917</v>
+        <v>242.27911</v>
       </c>
       <c r="I17">
-        <v>-0.030092917</v>
+        <v>242.27911</v>
       </c>
       <c r="J17">
-        <v>-0.0028360603</v>
+        <v>0.00070900843</v>
       </c>
       <c r="K17">
-        <v>-0.0028360603</v>
+        <v>0.00070900843</v>
       </c>
       <c r="L17">
-        <v>-0.011459315</v>
+        <v>-0.0009775088</v>
       </c>
       <c r="M17">
-        <v>-0.020776116</v>
+        <v>121.1390662456</v>
       </c>
       <c r="N17">
-        <v>-0.020776116</v>
+        <v>121.1390662456</v>
       </c>
       <c r="O17">
-        <v>5.445315589333333</v>
+        <v>80.75525557006667</v>
       </c>
       <c r="P17">
-        <v>-0.01479609743333333</v>
+        <v>80.75961383321</v>
       </c>
       <c r="Q17">
-        <v>-0.01479609743333333</v>
+        <v>80.75961383321</v>
       </c>
       <c r="R17">
-        <v>-0.01180608815</v>
+        <v>60.569887627015</v>
       </c>
       <c r="S17">
-        <v>-0.01180608815</v>
+        <v>60.569887627015</v>
       </c>
       <c r="T17">
-        <v>2.722996357583333</v>
+        <v>40.38124515363833</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.734662364762876</v>
+        <v>121.14151</v>
       </c>
       <c r="D18">
-        <v>0.001615994842739727</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="E18">
-        <v>11.17508419080274</v>
+        <v>0.010282672</v>
       </c>
       <c r="F18">
-        <v>-0.007234044796164386</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="G18">
-        <v>3.723875504056985</v>
+        <v>-0.012240956</v>
       </c>
       <c r="H18">
-        <v>10.78818887902</v>
+        <v>0.00070900843</v>
       </c>
       <c r="I18">
-        <v>10.78818887902</v>
+        <v>0.00070900843</v>
       </c>
       <c r="J18">
-        <v>3.734662364762876</v>
+        <v>121.14151</v>
       </c>
       <c r="K18">
-        <v>3.734662364762876</v>
+        <v>121.14151</v>
       </c>
       <c r="L18">
-        <v>3.723875504056985</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M18">
-        <v>7.256032191538493</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="N18">
-        <v>7.256032191538493</v>
+        <v>-0.005765973785000001</v>
       </c>
       <c r="O18">
-        <v>4.837893459306575</v>
+        <v>-0.004437407556666668</v>
       </c>
       <c r="P18">
-        <v>6.082242249279954</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="Q18">
-        <v>6.082242249279954</v>
+        <v>40.37665935080999</v>
       </c>
       <c r="R18">
-        <v>5.495347278150684</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="S18">
-        <v>5.495347278150684</v>
+        <v>60.5678720131075</v>
       </c>
       <c r="T18">
-        <v>4.90269881478153</v>
+        <v>20.18862854932167</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>13.55032498050159</v>
+        <v>-0.0028360603</v>
       </c>
       <c r="D19">
-        <v>6.650801036336841</v>
+        <v>16.377499</v>
       </c>
       <c r="E19">
-        <v>0.007608171926315788</v>
+        <v>-0.0053427112</v>
       </c>
       <c r="F19">
-        <v>6.060929405263196E-05</v>
+        <v>0.010210149</v>
       </c>
       <c r="G19">
-        <v>0.00457095178</v>
+        <v>-0.011459315</v>
       </c>
       <c r="H19">
-        <v>14.35741520336105</v>
+        <v>-0.030092917</v>
       </c>
       <c r="I19">
-        <v>14.35741520336105</v>
+        <v>-0.030092917</v>
       </c>
       <c r="J19">
-        <v>13.55032498050159</v>
+        <v>-0.0028360603</v>
       </c>
       <c r="K19">
-        <v>13.55032498050159</v>
+        <v>-0.0028360603</v>
       </c>
       <c r="L19">
-        <v>0.00457095178</v>
+        <v>-0.011459315</v>
       </c>
       <c r="M19">
-        <v>7.180993077570526</v>
+        <v>-0.020776116</v>
       </c>
       <c r="N19">
-        <v>7.180993077570526</v>
+        <v>-0.020776116</v>
       </c>
       <c r="O19">
-        <v>7.004262397159297</v>
+        <v>5.445315589333333</v>
       </c>
       <c r="P19">
-        <v>9.304103711880879</v>
+        <v>-0.01479609743333333</v>
       </c>
       <c r="Q19">
-        <v>9.304103711880879</v>
+        <v>-0.01479609743333333</v>
       </c>
       <c r="R19">
-        <v>10.36565902903606</v>
+        <v>-0.01180608815</v>
       </c>
       <c r="S19">
-        <v>10.36565902903606</v>
+        <v>-0.01180608815</v>
       </c>
       <c r="T19">
-        <v>5.761796825533309</v>
+        <v>2.722996357583333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.775185284685795</v>
+        <v>3.734662364762876</v>
       </c>
       <c r="D20">
-        <v>0.001342648583157895</v>
+        <v>0.001615994842739727</v>
       </c>
       <c r="E20">
-        <v>10.73438975628421</v>
+        <v>11.17508419080274</v>
       </c>
       <c r="F20">
-        <v>-0.007005507619473684</v>
+        <v>-0.007234044796164386</v>
       </c>
       <c r="G20">
-        <v>3.576545425997369</v>
+        <v>3.723875504056985</v>
       </c>
       <c r="H20">
-        <v>13.55024100243842</v>
+        <v>10.78818887902</v>
       </c>
       <c r="I20">
-        <v>13.55024100243842</v>
+        <v>10.78818887902</v>
       </c>
       <c r="J20">
-        <v>6.775185284685795</v>
+        <v>3.734662364762876</v>
       </c>
       <c r="K20">
-        <v>6.775185284685795</v>
+        <v>3.734662364762876</v>
       </c>
       <c r="L20">
-        <v>3.576545425997369</v>
+        <v>3.723875504056985</v>
       </c>
       <c r="M20">
-        <v>8.563393214217895</v>
+        <v>7.256032191538493</v>
       </c>
       <c r="N20">
-        <v>8.563393214217895</v>
+        <v>7.256032191538493</v>
       </c>
       <c r="O20">
-        <v>5.709376359006316</v>
+        <v>4.837893459306575</v>
       </c>
       <c r="P20">
-        <v>7.967323904373861</v>
+        <v>6.082242249279954</v>
       </c>
       <c r="Q20">
-        <v>7.967323904373862</v>
+        <v>6.082242249279954</v>
       </c>
       <c r="R20">
-        <v>7.669289249451845</v>
+        <v>5.495347278150684</v>
       </c>
       <c r="S20">
-        <v>7.669289249451845</v>
+        <v>5.495347278150684</v>
       </c>
       <c r="T20">
-        <v>5.771783101728246</v>
+        <v>4.90269881478153</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>-0.0003899418825473299</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="D21">
-        <v>1.939450867039165</v>
+        <v>6.650801036336841</v>
       </c>
       <c r="E21">
-        <v>0.0006168176677112139</v>
+        <v>0.007608171926315788</v>
       </c>
       <c r="F21">
-        <v>-0.0004015883134759693</v>
+        <v>6.060929405263196E-05</v>
       </c>
       <c r="G21">
-        <v>-0.0005623933642230922</v>
+        <v>0.00457095178</v>
       </c>
       <c r="H21">
-        <v>11.3253112082399</v>
+        <v>14.35741520336105</v>
       </c>
       <c r="I21">
-        <v>11.3253112082399</v>
+        <v>14.35741520336105</v>
       </c>
       <c r="J21">
-        <v>-0.0003899418825473299</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="K21">
-        <v>-0.0003899418825473299</v>
+        <v>13.55032498050159</v>
       </c>
       <c r="L21">
-        <v>-0.0005623933642230922</v>
+        <v>0.00457095178</v>
       </c>
       <c r="M21">
-        <v>5.662374407437837</v>
+        <v>7.180993077570526</v>
       </c>
       <c r="N21">
-        <v>5.662374407437837</v>
+        <v>7.180993077570526</v>
       </c>
       <c r="O21">
-        <v>4.421399893971613</v>
+        <v>7.004262397159297</v>
       </c>
       <c r="P21">
-        <v>3.774786290997709</v>
+        <v>9.304103711880879</v>
       </c>
       <c r="Q21">
-        <v>3.774786290997709</v>
+        <v>9.304103711880879</v>
       </c>
       <c r="R21">
-        <v>2.830992232777645</v>
+        <v>10.36565902903606</v>
       </c>
       <c r="S21">
-        <v>2.830992232777645</v>
+        <v>10.36565902903606</v>
       </c>
       <c r="T21">
-        <v>2.210670828231088</v>
+        <v>5.761796825533309</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.03481782273777063</v>
+        <v>6.775185284685795</v>
       </c>
       <c r="D22">
-        <v>1.5791847424298</v>
+        <v>0.001342648583157895</v>
       </c>
       <c r="E22">
-        <v>-0.0009909289670925157</v>
+        <v>10.73438975628421</v>
       </c>
       <c r="F22">
-        <v>1.178403091363843</v>
+        <v>-0.007005507619473684</v>
       </c>
       <c r="G22">
-        <v>1.60972298834738</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="H22">
-        <v>-0.002695329012334537</v>
+        <v>13.55024100243842</v>
       </c>
       <c r="I22">
-        <v>-0.002695329012334537</v>
+        <v>13.55024100243842</v>
       </c>
       <c r="J22">
-        <v>0.03481782273777063</v>
+        <v>6.775185284685795</v>
       </c>
       <c r="K22">
-        <v>0.03481782273777063</v>
+        <v>6.775185284685795</v>
       </c>
       <c r="L22">
-        <v>1.60972298834738</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="M22">
-        <v>0.8035138296675229</v>
+        <v>8.563393214217895</v>
       </c>
       <c r="N22">
-        <v>0.8035138296675229</v>
+        <v>8.563393214217895</v>
       </c>
       <c r="O22">
-        <v>1.062070800588282</v>
+        <v>5.709376359006316</v>
       </c>
       <c r="P22">
-        <v>0.5472818273576056</v>
+        <v>7.967323904373861</v>
       </c>
       <c r="Q22">
-        <v>0.5472818273576056</v>
+        <v>7.967323904373862</v>
       </c>
       <c r="R22">
-        <v>0.4191658262026468</v>
+        <v>7.669289249451845</v>
       </c>
       <c r="S22">
-        <v>0.4191658262026468</v>
+        <v>7.669289249451845</v>
       </c>
       <c r="T22">
-        <v>0.7330737311498945</v>
+        <v>5.771783101728246</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>-0.0003421703317369149</v>
+        <v>-0.0003899418825473299</v>
       </c>
       <c r="D23">
-        <v>0.2984651631758272</v>
+        <v>1.939450867039165</v>
       </c>
       <c r="E23">
-        <v>-0.002882229086911449</v>
+        <v>0.0006168176677112139</v>
       </c>
       <c r="F23">
-        <v>1.19716049132486</v>
+        <v>-0.0004015883134759693</v>
       </c>
       <c r="G23">
-        <v>0.5690785811988043</v>
+        <v>-0.0005623933642230922</v>
       </c>
       <c r="H23">
-        <v>0.004554680423049943</v>
+        <v>11.3253112082399</v>
       </c>
       <c r="I23">
-        <v>0.004554680423049943</v>
+        <v>11.3253112082399</v>
       </c>
       <c r="J23">
-        <v>-0.0003421703317369149</v>
+        <v>-0.0003899418825473299</v>
       </c>
       <c r="K23">
-        <v>-0.0003421703317369149</v>
+        <v>-0.0003899418825473299</v>
       </c>
       <c r="L23">
-        <v>0.5690785811988043</v>
+        <v>-0.0005623933642230922</v>
       </c>
       <c r="M23">
-        <v>0.2868166308109271</v>
+        <v>5.662374407437837</v>
       </c>
       <c r="N23">
-        <v>0.2868166308109271</v>
+        <v>5.662374407437837</v>
       </c>
       <c r="O23">
-        <v>0.2906994749325605</v>
+        <v>4.421399893971613</v>
       </c>
       <c r="P23">
-        <v>0.1910970304300391</v>
+        <v>3.774786290997709</v>
       </c>
       <c r="Q23">
-        <v>0.1910970304300391</v>
+        <v>3.774786290997709</v>
       </c>
       <c r="R23">
-        <v>0.1432372302395951</v>
+        <v>2.830992232777645</v>
       </c>
       <c r="S23">
-        <v>0.1432372302395951</v>
+        <v>2.830992232777645</v>
       </c>
       <c r="T23">
-        <v>0.3443390861173155</v>
+        <v>2.210670828231088</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.94901608169743</v>
+        <v>0.03481782273777063</v>
       </c>
       <c r="D24">
-        <v>1.399430878682554</v>
+        <v>1.5791847424298</v>
       </c>
       <c r="E24">
-        <v>5.784812425470848</v>
+        <v>-0.0009909289670925157</v>
       </c>
       <c r="F24">
-        <v>0.2773127339309403</v>
+        <v>1.178403091363843</v>
       </c>
       <c r="G24">
-        <v>-0.0002601929223607322</v>
+        <v>1.60972298834738</v>
       </c>
       <c r="H24">
-        <v>1.697035567127595</v>
+        <v>-0.002695329012334537</v>
       </c>
       <c r="I24">
-        <v>1.697035567127595</v>
+        <v>-0.002695329012334537</v>
       </c>
       <c r="J24">
-        <v>3.94901608169743</v>
+        <v>0.03481782273777063</v>
       </c>
       <c r="K24">
-        <v>3.94901608169743</v>
+        <v>0.03481782273777063</v>
       </c>
       <c r="L24">
-        <v>-0.0002601929223607322</v>
+        <v>1.60972298834738</v>
       </c>
       <c r="M24">
-        <v>0.848387687102617</v>
+        <v>0.8035138296675229</v>
       </c>
       <c r="N24">
-        <v>0.848387687102617</v>
+        <v>0.8035138296675229</v>
       </c>
       <c r="O24">
-        <v>1.032068750962596</v>
+        <v>1.062070800588282</v>
       </c>
       <c r="P24">
-        <v>1.881930485300888</v>
+        <v>0.5472818273576056</v>
       </c>
       <c r="Q24">
-        <v>1.881930485300888</v>
+        <v>0.5472818273576056</v>
       </c>
       <c r="R24">
-        <v>2.398701884400023</v>
+        <v>0.4191658262026468</v>
       </c>
       <c r="S24">
-        <v>2.398701884400023</v>
+        <v>0.4191658262026468</v>
       </c>
       <c r="T24">
-        <v>2.184557915664501</v>
+        <v>0.7330737311498945</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>-0.0006148049061772198</v>
+        <v>-0.0003421703317369149</v>
       </c>
       <c r="D25">
-        <v>-0.0001539663275807707</v>
+        <v>0.2984651631758272</v>
       </c>
       <c r="E25">
-        <v>-0.00560906227579368</v>
+        <v>-0.002882229086911449</v>
       </c>
       <c r="F25">
-        <v>0.009354820609377012</v>
+        <v>1.19716049132486</v>
       </c>
       <c r="G25">
-        <v>0.217754540940984</v>
+        <v>0.5690785811988043</v>
       </c>
       <c r="H25">
-        <v>-0.001881162476360867</v>
+        <v>0.004554680423049943</v>
       </c>
       <c r="I25">
-        <v>-0.001881162476360867</v>
+        <v>0.004554680423049943</v>
       </c>
       <c r="J25">
-        <v>-0.0006148049061772198</v>
+        <v>-0.0003421703317369149</v>
       </c>
       <c r="K25">
-        <v>-0.0006148049061772198</v>
+        <v>-0.0003421703317369149</v>
       </c>
       <c r="L25">
-        <v>0.217754540940984</v>
+        <v>0.5690785811988043</v>
       </c>
       <c r="M25">
-        <v>0.1079366892323116</v>
+        <v>0.2868166308109271</v>
       </c>
       <c r="N25">
-        <v>0.1079366892323116</v>
+        <v>0.2868166308109271</v>
       </c>
       <c r="O25">
-        <v>0.07190647071234745</v>
+        <v>0.2906994749325605</v>
       </c>
       <c r="P25">
-        <v>0.07175285785281531</v>
+        <v>0.1910970304300391</v>
       </c>
       <c r="Q25">
-        <v>0.07175285785281529</v>
+        <v>0.1910970304300391</v>
       </c>
       <c r="R25">
-        <v>0.05366094216306717</v>
+        <v>0.1432372302395951</v>
       </c>
       <c r="S25">
-        <v>0.05366094216306717</v>
+        <v>0.1432372302395951</v>
       </c>
       <c r="T25">
-        <v>0.03647506092740807</v>
+        <v>0.3443390861173155</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.05920021582815128</v>
+        <v>3.94901608169743</v>
       </c>
       <c r="D26">
-        <v>0.001041557758849685</v>
+        <v>1.399430878682554</v>
       </c>
       <c r="E26">
-        <v>0.002781329987213234</v>
+        <v>5.784812425470848</v>
       </c>
       <c r="F26">
-        <v>1.880683109819564</v>
+        <v>0.2773127339309403</v>
       </c>
       <c r="G26">
-        <v>0.2195736007113997</v>
+        <v>-0.0002601929223607322</v>
       </c>
       <c r="H26">
-        <v>-0.002980182134650026</v>
+        <v>1.697035567127595</v>
       </c>
       <c r="I26">
-        <v>-0.002980182134650026</v>
+        <v>1.697035567127595</v>
       </c>
       <c r="J26">
-        <v>0.05920021582815128</v>
+        <v>3.94901608169743</v>
       </c>
       <c r="K26">
-        <v>0.05920021582815128</v>
+        <v>3.94901608169743</v>
       </c>
       <c r="L26">
-        <v>0.2195736007113997</v>
+        <v>-0.0002601929223607322</v>
       </c>
       <c r="M26">
-        <v>0.1082967092883748</v>
+        <v>0.848387687102617</v>
       </c>
       <c r="N26">
-        <v>0.1082967092883748</v>
+        <v>0.848387687102617</v>
       </c>
       <c r="O26">
-        <v>0.07254499211186645</v>
+        <v>1.032068750962596</v>
       </c>
       <c r="P26">
-        <v>0.09193121146830031</v>
+        <v>1.881930485300888</v>
       </c>
       <c r="Q26">
-        <v>0.09193121146830031</v>
+        <v>1.881930485300888</v>
       </c>
       <c r="R26">
-        <v>0.08374846255826306</v>
+        <v>2.398701884400023</v>
       </c>
       <c r="S26">
-        <v>0.08374846255826306</v>
+        <v>2.398701884400023</v>
       </c>
       <c r="T26">
-        <v>0.3600499386617547</v>
+        <v>2.184557915664501</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>7.126228920454707</v>
+        <v>-0.0006148049061772198</v>
       </c>
       <c r="D27">
-        <v>1.772861162904885</v>
+        <v>-0.0001539663275807707</v>
       </c>
       <c r="E27">
-        <v>3.242030450027406</v>
+        <v>-0.00560906227579368</v>
       </c>
       <c r="F27">
-        <v>0.002371548944927482</v>
+        <v>0.009354820609377012</v>
       </c>
       <c r="G27">
-        <v>0.9200931445365077</v>
+        <v>0.217754540940984</v>
       </c>
       <c r="H27">
-        <v>-0.005718491828949946</v>
+        <v>-0.001881162476360867</v>
       </c>
       <c r="I27">
-        <v>-0.005718491828949946</v>
+        <v>-0.001881162476360867</v>
       </c>
       <c r="J27">
-        <v>7.126228920454707</v>
+        <v>-0.0006148049061772198</v>
       </c>
       <c r="K27">
-        <v>7.126228920454707</v>
+        <v>-0.0006148049061772198</v>
       </c>
       <c r="L27">
-        <v>0.9200931445365077</v>
+        <v>0.217754540940984</v>
       </c>
       <c r="M27">
-        <v>0.4571873263537789</v>
+        <v>0.1079366892323116</v>
       </c>
       <c r="N27">
-        <v>0.4571873263537789</v>
+        <v>0.1079366892323116</v>
       </c>
       <c r="O27">
-        <v>0.8957452718708142</v>
+        <v>0.07190647071234745</v>
       </c>
       <c r="P27">
-        <v>2.680201191054088</v>
+        <v>0.07175285785281531</v>
       </c>
       <c r="Q27">
-        <v>2.680201191054088</v>
+        <v>0.07175285785281529</v>
       </c>
       <c r="R27">
-        <v>3.791708123404243</v>
+        <v>0.05366094216306717</v>
       </c>
       <c r="S27">
-        <v>3.791708123404243</v>
+        <v>0.05366094216306717</v>
       </c>
       <c r="T27">
-        <v>2.176311122506581</v>
+        <v>0.03647506092740807</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.06887678046440515</v>
+        <v>0.05920021582815128</v>
       </c>
       <c r="D28">
-        <v>0.00627731671218913</v>
+        <v>0.001041557758849685</v>
       </c>
       <c r="E28">
-        <v>2.291950558280325</v>
+        <v>0.002781329987213234</v>
       </c>
       <c r="F28">
-        <v>0.07323203089736487</v>
+        <v>1.880683109819564</v>
       </c>
       <c r="G28">
-        <v>0.3795333233350823</v>
+        <v>0.2195736007113997</v>
       </c>
       <c r="H28">
-        <v>0.3656806816609835</v>
+        <v>-0.002980182134650026</v>
       </c>
       <c r="I28">
-        <v>0.3656806816609835</v>
+        <v>-0.002980182134650026</v>
       </c>
       <c r="J28">
-        <v>0.06887678046440515</v>
+        <v>0.05920021582815128</v>
       </c>
       <c r="K28">
-        <v>0.06887678046440515</v>
+        <v>0.05920021582815128</v>
       </c>
       <c r="L28">
-        <v>0.3795333233350823</v>
+        <v>0.2195736007113997</v>
       </c>
       <c r="M28">
-        <v>0.3726070024980329</v>
+        <v>0.1082967092883748</v>
       </c>
       <c r="N28">
-        <v>0.3726070024980329</v>
+        <v>0.1082967092883748</v>
       </c>
       <c r="O28">
-        <v>0.250497107236085</v>
+        <v>0.07254499211186645</v>
       </c>
       <c r="P28">
-        <v>0.2713635951534903</v>
+        <v>0.09193121146830031</v>
       </c>
       <c r="Q28">
-        <v>0.2713635951534903</v>
+        <v>0.09193121146830031</v>
       </c>
       <c r="R28">
-        <v>0.220741891481219</v>
+        <v>0.08374846255826306</v>
       </c>
       <c r="S28">
-        <v>0.220741891481219</v>
+        <v>0.08374846255826306</v>
       </c>
       <c r="T28">
-        <v>0.5309251152250583</v>
+        <v>0.3600499386617547</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>7.126228920454707</v>
+      </c>
+      <c r="D29">
+        <v>1.772861162904885</v>
+      </c>
+      <c r="E29">
+        <v>3.242030450027406</v>
+      </c>
+      <c r="F29">
+        <v>0.002371548944927482</v>
+      </c>
+      <c r="G29">
+        <v>0.9200931445365077</v>
+      </c>
+      <c r="H29">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="I29">
+        <v>-0.005718491828949946</v>
+      </c>
+      <c r="J29">
+        <v>7.126228920454707</v>
+      </c>
+      <c r="K29">
+        <v>7.126228920454707</v>
+      </c>
+      <c r="L29">
+        <v>0.9200931445365077</v>
+      </c>
+      <c r="M29">
+        <v>0.4571873263537789</v>
+      </c>
+      <c r="N29">
+        <v>0.4571873263537789</v>
+      </c>
+      <c r="O29">
+        <v>0.8957452718708142</v>
+      </c>
+      <c r="P29">
+        <v>2.680201191054088</v>
+      </c>
+      <c r="Q29">
+        <v>2.680201191054088</v>
+      </c>
+      <c r="R29">
+        <v>3.791708123404243</v>
+      </c>
+      <c r="S29">
+        <v>3.791708123404243</v>
+      </c>
+      <c r="T29">
+        <v>2.176311122506581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.06887678046440515</v>
+      </c>
+      <c r="D30">
+        <v>0.00627731671218913</v>
+      </c>
+      <c r="E30">
+        <v>2.291950558280325</v>
+      </c>
+      <c r="F30">
+        <v>0.07323203089736487</v>
+      </c>
+      <c r="G30">
+        <v>0.3795333233350823</v>
+      </c>
+      <c r="H30">
+        <v>0.3656806816609835</v>
+      </c>
+      <c r="I30">
+        <v>0.3656806816609835</v>
+      </c>
+      <c r="J30">
+        <v>0.06887678046440515</v>
+      </c>
+      <c r="K30">
+        <v>0.06887678046440515</v>
+      </c>
+      <c r="L30">
+        <v>0.3795333233350823</v>
+      </c>
+      <c r="M30">
+        <v>0.3726070024980329</v>
+      </c>
+      <c r="N30">
+        <v>0.3726070024980329</v>
+      </c>
+      <c r="O30">
+        <v>0.250497107236085</v>
+      </c>
+      <c r="P30">
+        <v>0.2713635951534903</v>
+      </c>
+      <c r="Q30">
+        <v>0.2713635951534903</v>
+      </c>
+      <c r="R30">
+        <v>0.220741891481219</v>
+      </c>
+      <c r="S30">
+        <v>0.220741891481219</v>
+      </c>
+      <c r="T30">
+        <v>0.5309251152250583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.1598470335593815</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.005317559885614847</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>5.163595772189805</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>-0.001343396307482001</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.008285393584049359</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.8197752177394318</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.8197752177394318</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.1598470335593815</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.1598470335593815</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.008285393584049359</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.4140303056617406</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.4140303056617406</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.2777927237363654</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.3293025482942876</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.3293025482942876</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.2869386696105611</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.2869386696105611</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.025912930108467</v>
       </c>
     </row>
